--- a/src/test/resources/br/org/sae/test/arquivo-completo.xlsx
+++ b/src/test/resources/br/org/sae/test/arquivo-completo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="165" windowWidth="11355" windowHeight="7875" tabRatio="754" activeTab="1"/>
@@ -11,10 +11,10 @@
     <sheet name="dados" sheetId="12" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_103.00S" localSheetId="1" hidden="1">dados!$A$1:$BH$4</definedName>
+    <definedName name="_103.00S" localSheetId="1" hidden="1">dados!$A$1:$BH$15</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">REQUERIMENTO!$A$2:$Z$63</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="379">
   <si>
     <t>Sexo</t>
   </si>
@@ -692,6 +692,489 @@
   </si>
   <si>
     <t>carlos hemrique gonçalves</t>
+  </si>
+  <si>
+    <t>ADEILDO FERNANDO MARTINS JUNIOR</t>
+  </si>
+  <si>
+    <t>366362211</t>
+  </si>
+  <si>
+    <t>01/07/1996</t>
+  </si>
+  <si>
+    <t>RUA MILTON SIMONETTI TRENCH</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>JARDIM SENHOR BOM JESUS</t>
+  </si>
+  <si>
+    <t>9173-2590</t>
+  </si>
+  <si>
+    <t>15995-228</t>
+  </si>
+  <si>
+    <t>JUNINHOMARTINS_JM@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>9288-7842</t>
+  </si>
+  <si>
+    <t>34504178869</t>
+  </si>
+  <si>
+    <t>ADRIANA FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>1786132</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>13/12/1981</t>
+  </si>
+  <si>
+    <t>RUA FRANCISCO GERONIMO DE ARAUJO</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>RESIDENCIAL ALEXANDRE</t>
+  </si>
+  <si>
+    <t>8249-9370</t>
+  </si>
+  <si>
+    <t>Dobrada</t>
+  </si>
+  <si>
+    <t>14800-000</t>
+  </si>
+  <si>
+    <t>MANHÃ</t>
+  </si>
+  <si>
+    <t>AJOSEVAL@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>9707-1872</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>DABEBBEAACEBEBDEBBCBAECCEDACBBECBEEBBCBEEAEAACEEBA</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>17,6</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>04497132455</t>
+  </si>
+  <si>
+    <t>ADRIANA IRIAS DA SILVA</t>
+  </si>
+  <si>
+    <t>418841470</t>
+  </si>
+  <si>
+    <t>29/03/1994</t>
+  </si>
+  <si>
+    <t>AVENIDA CARLOS MARIANI</t>
+  </si>
+  <si>
+    <t>982</t>
+  </si>
+  <si>
+    <t>IV CENTENARIO</t>
+  </si>
+  <si>
+    <t>3384-8652</t>
+  </si>
+  <si>
+    <t>15990-430</t>
+  </si>
+  <si>
+    <t>ADRIANAIRIAS.SILVA@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>8169-8191</t>
+  </si>
+  <si>
+    <t>43150638860</t>
+  </si>
+  <si>
+    <t>ADRIANA SOARES BATISTA</t>
+  </si>
+  <si>
+    <t>428194763</t>
+  </si>
+  <si>
+    <t>12/11/1992</t>
+  </si>
+  <si>
+    <t>RUA ARMANDO ANTONIO MOCHETTI</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>CASA</t>
+  </si>
+  <si>
+    <t>3506-1174</t>
+  </si>
+  <si>
+    <t>15996-070</t>
+  </si>
+  <si>
+    <t>DRI_CORINTHIANA12@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>9255-0490</t>
+  </si>
+  <si>
+    <t>CBEEECECEEBEBECCBBCCCEDAAEBDAEDCCEEDBADEAABDACCBBE</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19,21</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>41210725886</t>
+  </si>
+  <si>
+    <t>ADRIANO APARECIDO VIEIRA</t>
+  </si>
+  <si>
+    <t>244907699</t>
+  </si>
+  <si>
+    <t>21/06/1975</t>
+  </si>
+  <si>
+    <t>AVENIDA JAIME RIBEIRO</t>
+  </si>
+  <si>
+    <t>887</t>
+  </si>
+  <si>
+    <t>VILA INDUSTRIAL</t>
+  </si>
+  <si>
+    <t>3202-7239</t>
+  </si>
+  <si>
+    <t>Jaboticabal</t>
+  </si>
+  <si>
+    <t>14883-125</t>
+  </si>
+  <si>
+    <t>ADRIANVIEIRA2010@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>9779-6974</t>
+  </si>
+  <si>
+    <t>DDCDBCEDBCDBEBACBBDCCECEACCDBDCCBAEBECCACECEBBEDBB</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>31,64</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>15076135807</t>
+  </si>
+  <si>
+    <t>ADRIANO CANDIDO MARQUES</t>
+  </si>
+  <si>
+    <t>411119898</t>
+  </si>
+  <si>
+    <t>11/09/1987</t>
+  </si>
+  <si>
+    <t>AVENIDA GILDO NICOLUCCIAV</t>
+  </si>
+  <si>
+    <t>677</t>
+  </si>
+  <si>
+    <t>VILA MARIA</t>
+  </si>
+  <si>
+    <t>3382-7944</t>
+  </si>
+  <si>
+    <t>15995-014</t>
+  </si>
+  <si>
+    <t>ADRIANO.MARQUES@POP.COM.BR</t>
+  </si>
+  <si>
+    <t>9278-1968</t>
+  </si>
+  <si>
+    <t>DCBABCECBCDBEBACBBDECEDAACDDEEBCECEECCEACBBEBBADDE</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>36,16</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>35021393855</t>
+  </si>
+  <si>
+    <t>ADRIANO SEBASTIAO COLOMBINO</t>
+  </si>
+  <si>
+    <t>334156543</t>
+  </si>
+  <si>
+    <t>06/09/1981</t>
+  </si>
+  <si>
+    <t>SIMAO KAIRALLA</t>
+  </si>
+  <si>
+    <t>3040</t>
+  </si>
+  <si>
+    <t>CENTENARIO</t>
+  </si>
+  <si>
+    <t>3242-7607</t>
+  </si>
+  <si>
+    <t>Monte Alto</t>
+  </si>
+  <si>
+    <t>15910-000</t>
+  </si>
+  <si>
+    <t>ADRIANOFILE_@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>9748-9766</t>
+  </si>
+  <si>
+    <t>ADAEBCEDEDCCCBABDBBBAEDBEBADCCBCADEEBBCDDACEDDECBE</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>22168140839</t>
+  </si>
+  <si>
+    <t>AGNALDO JOSE DA COSTA</t>
+  </si>
+  <si>
+    <t>295347272</t>
+  </si>
+  <si>
+    <t>06/09/1978</t>
+  </si>
+  <si>
+    <t>RUA JAIME MANTOVANI</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>JARDIM VERA CRUZ</t>
+  </si>
+  <si>
+    <t>3242-9090</t>
+  </si>
+  <si>
+    <t>AGNALDO1778@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>9709-8726</t>
+  </si>
+  <si>
+    <t>DBBEBDECAEBCDBBABBDECDCCEDADBDCBEDECCBEBCECABBEBEB</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>25734521825</t>
+  </si>
+  <si>
+    <t>ALESSANDRA FERNANDA DE ARAUJO BORGES</t>
+  </si>
+  <si>
+    <t>421251049</t>
+  </si>
+  <si>
+    <t>27/10/1997</t>
+  </si>
+  <si>
+    <t>AV: TEREZA PEDRO MATURO</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>JARDIM GAIVOTAS</t>
+  </si>
+  <si>
+    <t>3252-2504</t>
+  </si>
+  <si>
+    <t>Guariba</t>
+  </si>
+  <si>
+    <t>14840-000</t>
+  </si>
+  <si>
+    <t>LEARAUJO-GBA2012@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>9961-0857</t>
+  </si>
+  <si>
+    <t>45293447890</t>
+  </si>
+  <si>
+    <t>ALESSANDRA GONÇALO DA SILVA</t>
+  </si>
+  <si>
+    <t>472098044</t>
+  </si>
+  <si>
+    <t>12/02/1996</t>
+  </si>
+  <si>
+    <t>RUA ADELINO BESSI</t>
+  </si>
+  <si>
+    <t>645</t>
+  </si>
+  <si>
+    <t>BLOCO 5A APº24A</t>
+  </si>
+  <si>
+    <t>JARDIM PARAISO III</t>
+  </si>
+  <si>
+    <t>3384-7881</t>
+  </si>
+  <si>
+    <t>15991-356</t>
+  </si>
+  <si>
+    <t>ALESSANDRA-GTS@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>9109-1175</t>
+  </si>
+  <si>
+    <t>DCAEBEECACDBABDBBECACEACDECDECBCAEEDCCEBBDABACDBBE</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19,8</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>43413701894</t>
+  </si>
+  <si>
+    <t>ALESSANDRA SANTOS FAUSTINO</t>
+  </si>
+  <si>
+    <t>471104565</t>
+  </si>
+  <si>
+    <t>17/09/1990</t>
+  </si>
+  <si>
+    <t>RUA CONSTANTINO BASTIA</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>JARDIM PEREIRA</t>
+  </si>
+  <si>
+    <t>3389-1245</t>
+  </si>
+  <si>
+    <t>15990-834</t>
+  </si>
+  <si>
+    <t>ALESSANDRA.DOLL@HOTMAIL.COM</t>
+  </si>
+  <si>
+    <t>9140-9473</t>
+  </si>
+  <si>
+    <t>DECCEEECDCBBDBACBBDDCEDAACBBABBCEEEACCCCCACCDBEDDE</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>31,9</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>39263801878</t>
   </si>
 </sst>
 </file>
@@ -824,7 +1307,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -849,6 +1332,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="55">
     <border>
@@ -1515,7 +2004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
@@ -1894,41 +2383,170 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="39" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1939,97 +2557,58 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2056,18 +2635,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2077,21 +2656,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2101,9 +2671,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="31" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2116,15 +2683,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2140,164 +2698,110 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2612,8 +3116,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela__103.00S" displayName="Tabela__103.00S" ref="A1:BH4" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:BH4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela__103.00S" displayName="Tabela__103.00S" ref="A1:BH15" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:BH15"/>
   <sortState ref="A3:BH497">
     <sortCondition ref="A2"/>
   </sortState>
@@ -3023,12 +3527,12 @@
       <c r="AG1" s="70"/>
     </row>
     <row r="2" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="252" t="s">
         <v>210</v>
       </c>
-      <c r="B2" s="223"/>
-      <c r="C2" s="223"/>
-      <c r="D2" s="224"/>
+      <c r="B2" s="253"/>
+      <c r="C2" s="253"/>
+      <c r="D2" s="254"/>
       <c r="E2" s="62"/>
       <c r="F2" s="63"/>
       <c r="G2" s="63"/>
@@ -3062,10 +3566,10 @@
       <c r="AA2" s="60"/>
     </row>
     <row r="3" spans="1:50" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="225"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="227"/>
+      <c r="A3" s="220"/>
+      <c r="B3" s="221"/>
+      <c r="C3" s="221"/>
+      <c r="D3" s="226"/>
       <c r="E3" s="71"/>
       <c r="F3" s="60"/>
       <c r="G3" s="60"/>
@@ -3090,10 +3594,10 @@
       <c r="Z3" s="47"/>
     </row>
     <row r="4" spans="1:50" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="225"/>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="227"/>
+      <c r="A4" s="220"/>
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="226"/>
       <c r="E4" s="74"/>
       <c r="F4" s="75"/>
       <c r="G4" s="60"/>
@@ -3149,10 +3653,10 @@
       <c r="AX4" s="60"/>
     </row>
     <row r="5" spans="1:50" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="225"/>
-      <c r="B5" s="226"/>
-      <c r="C5" s="226"/>
-      <c r="D5" s="227"/>
+      <c r="A5" s="220"/>
+      <c r="B5" s="221"/>
+      <c r="C5" s="221"/>
+      <c r="D5" s="226"/>
       <c r="E5" s="74"/>
       <c r="F5" s="75"/>
       <c r="G5" s="60"/>
@@ -3200,10 +3704,10 @@
       <c r="AX5" s="60"/>
     </row>
     <row r="6" spans="1:50" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="225"/>
-      <c r="B6" s="226"/>
-      <c r="C6" s="226"/>
-      <c r="D6" s="227"/>
+      <c r="A6" s="220"/>
+      <c r="B6" s="221"/>
+      <c r="C6" s="221"/>
+      <c r="D6" s="226"/>
       <c r="E6" s="74"/>
       <c r="F6" s="75"/>
       <c r="G6" s="60"/>
@@ -3259,10 +3763,10 @@
       <c r="AX6" s="60"/>
     </row>
     <row r="7" spans="1:50" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="225"/>
-      <c r="B7" s="226"/>
-      <c r="C7" s="226"/>
-      <c r="D7" s="227"/>
+      <c r="A7" s="220"/>
+      <c r="B7" s="221"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="226"/>
       <c r="E7" s="71"/>
       <c r="F7" s="60"/>
       <c r="G7" s="60"/>
@@ -3310,10 +3814,10 @@
       <c r="AX7" s="60"/>
     </row>
     <row r="8" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="225"/>
-      <c r="B8" s="226"/>
-      <c r="C8" s="226"/>
-      <c r="D8" s="227"/>
+      <c r="A8" s="220"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="226"/>
       <c r="E8" s="74"/>
       <c r="F8" s="75"/>
       <c r="G8" s="60"/>
@@ -3367,10 +3871,10 @@
       <c r="AX8" s="60"/>
     </row>
     <row r="9" spans="1:50" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="225"/>
-      <c r="B9" s="226"/>
-      <c r="C9" s="226"/>
-      <c r="D9" s="227"/>
+      <c r="A9" s="220"/>
+      <c r="B9" s="221"/>
+      <c r="C9" s="221"/>
+      <c r="D9" s="226"/>
       <c r="E9" s="74"/>
       <c r="F9" s="75"/>
       <c r="G9" s="60"/>
@@ -3418,10 +3922,10 @@
       <c r="AX9" s="60"/>
     </row>
     <row r="10" spans="1:50" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="225"/>
-      <c r="B10" s="226"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="227"/>
+      <c r="A10" s="220"/>
+      <c r="B10" s="221"/>
+      <c r="C10" s="221"/>
+      <c r="D10" s="226"/>
       <c r="E10" s="82"/>
       <c r="F10" s="83"/>
       <c r="G10" s="84"/>
@@ -3435,25 +3939,25 @@
       <c r="M10" s="84"/>
       <c r="N10" s="84"/>
       <c r="O10" s="84"/>
-      <c r="P10" s="208"/>
-      <c r="Q10" s="209"/>
-      <c r="R10" s="209"/>
-      <c r="S10" s="209"/>
-      <c r="T10" s="209"/>
-      <c r="U10" s="209"/>
-      <c r="V10" s="209"/>
-      <c r="W10" s="209"/>
-      <c r="X10" s="209"/>
-      <c r="Y10" s="209"/>
-      <c r="Z10" s="210"/>
-      <c r="AB10" s="267" t="s">
+      <c r="P10" s="238"/>
+      <c r="Q10" s="239"/>
+      <c r="R10" s="239"/>
+      <c r="S10" s="239"/>
+      <c r="T10" s="239"/>
+      <c r="U10" s="239"/>
+      <c r="V10" s="239"/>
+      <c r="W10" s="239"/>
+      <c r="X10" s="239"/>
+      <c r="Y10" s="239"/>
+      <c r="Z10" s="240"/>
+      <c r="AB10" s="162" t="s">
         <v>196</v>
       </c>
-      <c r="AC10" s="268"/>
-      <c r="AD10" s="268"/>
-      <c r="AE10" s="268"/>
-      <c r="AF10" s="268"/>
-      <c r="AG10" s="268"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="163"/>
       <c r="AH10" s="148"/>
       <c r="AI10" s="75"/>
       <c r="AJ10" s="75"/>
@@ -3473,41 +3977,41 @@
       <c r="AX10" s="60"/>
     </row>
     <row r="11" spans="1:50" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="228"/>
-      <c r="B11" s="196"/>
-      <c r="C11" s="196"/>
-      <c r="D11" s="197"/>
-      <c r="E11" s="289" t="s">
+      <c r="A11" s="209"/>
+      <c r="B11" s="210"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="192" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="290"/>
-      <c r="G11" s="290"/>
-      <c r="H11" s="290"/>
-      <c r="I11" s="290"/>
-      <c r="J11" s="290"/>
-      <c r="K11" s="290"/>
-      <c r="L11" s="291"/>
-      <c r="M11" s="211" t="s">
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="N11" s="212"/>
-      <c r="O11" s="212"/>
-      <c r="P11" s="213"/>
-      <c r="Q11" s="214" t="e">
+      <c r="N11" s="242"/>
+      <c r="O11" s="242"/>
+      <c r="P11" s="243"/>
+      <c r="Q11" s="244" t="e">
         <f>VLOOKUP(AB11,dados!A1:BJ4,62,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R11" s="215"/>
-      <c r="S11" s="215"/>
-      <c r="T11" s="216"/>
+      <c r="R11" s="245"/>
+      <c r="S11" s="245"/>
+      <c r="T11" s="246"/>
       <c r="U11" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="V11" s="296"/>
-      <c r="W11" s="297"/>
-      <c r="X11" s="297"/>
-      <c r="Y11" s="297"/>
-      <c r="Z11" s="298"/>
+      <c r="V11" s="199"/>
+      <c r="W11" s="200"/>
+      <c r="X11" s="200"/>
+      <c r="Y11" s="200"/>
+      <c r="Z11" s="201"/>
       <c r="AA11" s="88"/>
       <c r="AB11" s="152" t="s">
         <v>217</v>
@@ -3678,22 +4182,22 @@
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
       <c r="D15" s="75"/>
-      <c r="E15" s="292"/>
-      <c r="F15" s="292"/>
-      <c r="G15" s="292"/>
-      <c r="H15" s="292"/>
-      <c r="I15" s="292"/>
-      <c r="J15" s="292"/>
-      <c r="K15" s="292"/>
-      <c r="L15" s="292"/>
-      <c r="M15" s="292"/>
-      <c r="N15" s="292"/>
-      <c r="O15" s="292"/>
-      <c r="P15" s="292"/>
-      <c r="Q15" s="292"/>
-      <c r="R15" s="292"/>
-      <c r="S15" s="292"/>
-      <c r="T15" s="292"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="195"/>
+      <c r="L15" s="195"/>
+      <c r="M15" s="195"/>
+      <c r="N15" s="195"/>
+      <c r="O15" s="195"/>
+      <c r="P15" s="195"/>
+      <c r="Q15" s="195"/>
+      <c r="R15" s="195"/>
+      <c r="S15" s="195"/>
+      <c r="T15" s="195"/>
       <c r="U15" s="75"/>
       <c r="V15" s="75"/>
       <c r="W15" s="75"/>
@@ -3711,23 +4215,23 @@
       <c r="B16" s="92"/>
       <c r="C16" s="92"/>
       <c r="D16" s="92"/>
-      <c r="E16" s="293" t="e">
+      <c r="E16" s="196" t="e">
         <f>IF(Q11&gt;AC20,"CANDIDATO NÃO CLASSIFICADO",(IF(Q11&lt;=AE20,"CANDIDATO 1ª CHAMADA",VLOOKUP(AB11,dados!A1:BH4,1,FALSE))))</f>
         <v>#N/A</v>
       </c>
-      <c r="F16" s="293"/>
-      <c r="G16" s="293"/>
-      <c r="H16" s="293"/>
-      <c r="I16" s="293"/>
-      <c r="J16" s="293"/>
-      <c r="K16" s="293"/>
-      <c r="L16" s="293"/>
-      <c r="M16" s="293"/>
-      <c r="N16" s="293"/>
-      <c r="O16" s="293"/>
-      <c r="P16" s="293"/>
-      <c r="Q16" s="293"/>
-      <c r="R16" s="293"/>
+      <c r="F16" s="196"/>
+      <c r="G16" s="196"/>
+      <c r="H16" s="196"/>
+      <c r="I16" s="196"/>
+      <c r="J16" s="196"/>
+      <c r="K16" s="196"/>
+      <c r="L16" s="196"/>
+      <c r="M16" s="196"/>
+      <c r="N16" s="196"/>
+      <c r="O16" s="196"/>
+      <c r="P16" s="196"/>
+      <c r="Q16" s="196"/>
+      <c r="R16" s="196"/>
       <c r="S16" s="92"/>
       <c r="T16" s="92"/>
       <c r="U16" s="92"/>
@@ -3843,47 +4347,47 @@
       <c r="AB19" s="90"/>
     </row>
     <row r="20" spans="1:35" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="181" t="e">
+      <c r="A20" s="169" t="e">
         <f>VLOOKUP(AB11,dados!A1:BH4,3,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B20" s="207"/>
-      <c r="C20" s="207"/>
-      <c r="D20" s="207"/>
-      <c r="E20" s="207"/>
-      <c r="F20" s="182"/>
-      <c r="G20" s="294" t="e">
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="197" t="e">
         <f>VLOOKUP(AB11,dados!A1:BH4,4,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="H20" s="295"/>
+      <c r="H20" s="198"/>
       <c r="I20" s="102"/>
-      <c r="J20" s="181" t="e">
+      <c r="J20" s="169" t="e">
         <f>VLOOKUP(AB11,dados!A1:BH4,5,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="K20" s="207"/>
-      <c r="L20" s="207"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="181" t="e">
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="168"/>
+      <c r="N20" s="169" t="e">
         <f>VLOOKUP(AB11,dados!A1:BH4,18,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="O20" s="207"/>
-      <c r="P20" s="207"/>
-      <c r="Q20" s="207"/>
-      <c r="R20" s="207"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="167"/>
       <c r="S20" s="59"/>
       <c r="T20" s="59"/>
-      <c r="U20" s="181" t="e">
+      <c r="U20" s="169" t="e">
         <f>VLOOKUP(AB11,dados!A1:BH4,19,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="V20" s="207"/>
-      <c r="W20" s="207"/>
-      <c r="X20" s="207"/>
-      <c r="Y20" s="207"/>
-      <c r="Z20" s="182"/>
+      <c r="V20" s="167"/>
+      <c r="W20" s="167"/>
+      <c r="X20" s="167"/>
+      <c r="Y20" s="167"/>
+      <c r="Z20" s="168"/>
       <c r="AB20" s="142" t="s">
         <v>206</v>
       </c>
@@ -3899,10 +4403,10 @@
         <v>#N/A</v>
       </c>
       <c r="AG20" s="123"/>
-      <c r="AH20" s="269" t="s">
+      <c r="AH20" s="165" t="s">
         <v>216</v>
       </c>
-      <c r="AI20" s="270"/>
+      <c r="AI20" s="166"/>
     </row>
     <row r="21" spans="1:35" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="119" t="s">
@@ -3942,15 +4446,15 @@
       </c>
     </row>
     <row r="22" spans="1:35" s="4" customFormat="1" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="207" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,60,FALSE)</f>
+      <c r="A22" s="298" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,60,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B22" s="207"/>
-      <c r="C22" s="207"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="207"/>
-      <c r="F22" s="182"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="168"/>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
       <c r="I22" s="9"/>
@@ -4045,33 +4549,33 @@
     <row r="24" spans="1:35" s="14" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="45"/>
-      <c r="C24" s="229" t="e">
+      <c r="C24" s="255" t="e">
         <f>VLOOKUP(AB11,dados!A1:BH4,6,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D24" s="207"/>
-      <c r="E24" s="207"/>
-      <c r="F24" s="207"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
       <c r="G24" s="45"/>
-      <c r="H24" s="207"/>
-      <c r="I24" s="207"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
       <c r="J24" s="13"/>
-      <c r="K24" s="181"/>
-      <c r="L24" s="207"/>
-      <c r="M24" s="207"/>
-      <c r="N24" s="207"/>
-      <c r="O24" s="207"/>
-      <c r="P24" s="207"/>
-      <c r="Q24" s="207"/>
-      <c r="R24" s="207"/>
-      <c r="S24" s="207"/>
-      <c r="T24" s="207"/>
-      <c r="U24" s="207"/>
-      <c r="V24" s="207"/>
-      <c r="W24" s="207"/>
+      <c r="K24" s="169"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="167"/>
+      <c r="O24" s="167"/>
+      <c r="P24" s="167"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="167"/>
+      <c r="S24" s="167"/>
+      <c r="T24" s="167"/>
+      <c r="U24" s="167"/>
+      <c r="V24" s="167"/>
+      <c r="W24" s="167"/>
       <c r="X24" s="13"/>
-      <c r="Y24" s="181"/>
-      <c r="Z24" s="182"/>
+      <c r="Y24" s="169"/>
+      <c r="Z24" s="168"/>
       <c r="AB24" s="135">
         <v>38</v>
       </c>
@@ -4190,40 +4694,40 @@
       </c>
     </row>
     <row r="27" spans="1:35" s="14" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="194" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,2,FALSE)</f>
+      <c r="A27" s="305" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B27" s="195"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="195"/>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="195"/>
-      <c r="L27" s="195"/>
-      <c r="M27" s="195"/>
-      <c r="N27" s="195"/>
+      <c r="B27" s="179"/>
+      <c r="C27" s="179"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="179"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="179"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="179"/>
       <c r="O27" s="15"/>
-      <c r="P27" s="194" t="s">
+      <c r="P27" s="178" t="s">
         <v>202</v>
       </c>
-      <c r="Q27" s="195"/>
-      <c r="R27" s="195"/>
-      <c r="S27" s="195"/>
+      <c r="Q27" s="179"/>
+      <c r="R27" s="179"/>
+      <c r="S27" s="179"/>
       <c r="T27" s="2"/>
       <c r="U27" s="16"/>
-      <c r="V27" s="181" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,20,FALSE)</f>
+      <c r="V27" s="301" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,20,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="W27" s="207"/>
-      <c r="X27" s="207"/>
-      <c r="Y27" s="207"/>
-      <c r="Z27" s="182"/>
+      <c r="W27" s="167"/>
+      <c r="X27" s="167"/>
+      <c r="Y27" s="167"/>
+      <c r="Z27" s="168"/>
       <c r="AC27" s="33"/>
       <c r="AG27" s="127"/>
     </row>
@@ -4273,50 +4777,50 @@
       <c r="K29" s="46"/>
       <c r="L29" s="32"/>
       <c r="M29" s="32"/>
-      <c r="N29" s="278"/>
-      <c r="O29" s="278"/>
-      <c r="P29" s="278"/>
-      <c r="Q29" s="278"/>
-      <c r="R29" s="278"/>
-      <c r="S29" s="278"/>
-      <c r="T29" s="278"/>
-      <c r="U29" s="278"/>
-      <c r="V29" s="278"/>
-      <c r="W29" s="278"/>
-      <c r="X29" s="278"/>
-      <c r="Y29" s="278"/>
-      <c r="Z29" s="279"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="180"/>
+      <c r="Q29" s="180"/>
+      <c r="R29" s="180"/>
+      <c r="S29" s="180"/>
+      <c r="T29" s="180"/>
+      <c r="U29" s="180"/>
+      <c r="V29" s="180"/>
+      <c r="W29" s="180"/>
+      <c r="X29" s="180"/>
+      <c r="Y29" s="180"/>
+      <c r="Z29" s="181"/>
       <c r="AG29" s="128"/>
     </row>
     <row r="30" spans="1:35" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="280" t="s">
+      <c r="A30" s="182" t="s">
         <v>205</v>
       </c>
-      <c r="B30" s="281"/>
-      <c r="C30" s="281"/>
-      <c r="D30" s="281"/>
-      <c r="E30" s="281"/>
-      <c r="F30" s="281"/>
-      <c r="G30" s="281"/>
-      <c r="H30" s="281"/>
-      <c r="I30" s="281"/>
-      <c r="J30" s="281"/>
-      <c r="K30" s="281"/>
-      <c r="L30" s="281"/>
-      <c r="M30" s="281"/>
-      <c r="N30" s="281"/>
-      <c r="O30" s="281"/>
-      <c r="P30" s="281"/>
-      <c r="Q30" s="281"/>
-      <c r="R30" s="281"/>
-      <c r="S30" s="281"/>
-      <c r="T30" s="281"/>
-      <c r="U30" s="281"/>
-      <c r="V30" s="281"/>
-      <c r="W30" s="281"/>
-      <c r="X30" s="281"/>
-      <c r="Y30" s="281"/>
-      <c r="Z30" s="282"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="183"/>
+      <c r="R30" s="183"/>
+      <c r="S30" s="183"/>
+      <c r="T30" s="183"/>
+      <c r="U30" s="183"/>
+      <c r="V30" s="183"/>
+      <c r="W30" s="183"/>
+      <c r="X30" s="183"/>
+      <c r="Y30" s="183"/>
+      <c r="Z30" s="184"/>
       <c r="AC30" s="17"/>
       <c r="AG30" s="128"/>
     </row>
@@ -4407,14 +4911,14 @@
       </c>
       <c r="S33" s="105"/>
       <c r="T33" s="105"/>
-      <c r="U33" s="283"/>
-      <c r="V33" s="284"/>
-      <c r="W33" s="286" t="s">
+      <c r="U33" s="185"/>
+      <c r="V33" s="186"/>
+      <c r="W33" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="X33" s="287"/>
-      <c r="Y33" s="287"/>
-      <c r="Z33" s="288"/>
+      <c r="X33" s="190"/>
+      <c r="Y33" s="190"/>
+      <c r="Z33" s="191"/>
       <c r="AC33" s="33"/>
       <c r="AG33" s="123"/>
     </row>
@@ -4452,99 +4956,99 @@
         <v>203</v>
       </c>
       <c r="B35" s="114"/>
-      <c r="C35" s="263">
+      <c r="C35" s="206">
         <f ca="1">TODAY()</f>
-        <v>41626</v>
-      </c>
-      <c r="D35" s="263"/>
-      <c r="E35" s="263"/>
-      <c r="F35" s="263"/>
-      <c r="G35" s="263"/>
-      <c r="H35" s="263"/>
-      <c r="I35" s="263"/>
-      <c r="J35" s="263"/>
-      <c r="K35" s="263"/>
-      <c r="L35" s="263"/>
-      <c r="M35" s="263"/>
+        <v>41645</v>
+      </c>
+      <c r="D35" s="206"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="206"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="206"/>
+      <c r="J35" s="206"/>
+      <c r="K35" s="206"/>
+      <c r="L35" s="206"/>
+      <c r="M35" s="206"/>
       <c r="N35" s="75"/>
       <c r="O35" s="75"/>
       <c r="P35" s="75"/>
       <c r="Q35" s="75"/>
-      <c r="R35" s="189" t="s">
+      <c r="R35" s="213" t="s">
         <v>21</v>
       </c>
-      <c r="S35" s="189"/>
-      <c r="T35" s="189"/>
-      <c r="U35" s="189"/>
-      <c r="V35" s="189"/>
-      <c r="W35" s="189"/>
-      <c r="X35" s="189"/>
-      <c r="Y35" s="189"/>
-      <c r="Z35" s="190"/>
+      <c r="S35" s="213"/>
+      <c r="T35" s="213"/>
+      <c r="U35" s="213"/>
+      <c r="V35" s="213"/>
+      <c r="W35" s="213"/>
+      <c r="X35" s="213"/>
+      <c r="Y35" s="213"/>
+      <c r="Z35" s="278"/>
       <c r="AC35" s="69"/>
       <c r="AG35" s="128"/>
     </row>
     <row r="36" spans="1:33" s="4" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="191"/>
-      <c r="B36" s="192"/>
-      <c r="C36" s="192"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="192"/>
-      <c r="M36" s="192"/>
+      <c r="A36" s="279"/>
+      <c r="B36" s="280"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="280"/>
+      <c r="E36" s="280"/>
+      <c r="F36" s="280"/>
+      <c r="G36" s="280"/>
+      <c r="H36" s="280"/>
+      <c r="I36" s="280"/>
+      <c r="J36" s="280"/>
+      <c r="K36" s="280"/>
+      <c r="L36" s="280"/>
+      <c r="M36" s="280"/>
       <c r="N36" s="70"/>
       <c r="O36" s="70"/>
       <c r="P36" s="70"/>
-      <c r="Q36" s="192"/>
-      <c r="R36" s="192"/>
-      <c r="S36" s="192"/>
-      <c r="T36" s="192"/>
-      <c r="U36" s="192"/>
-      <c r="V36" s="192"/>
-      <c r="W36" s="192"/>
-      <c r="X36" s="192"/>
-      <c r="Y36" s="192"/>
-      <c r="Z36" s="193"/>
+      <c r="Q36" s="280"/>
+      <c r="R36" s="280"/>
+      <c r="S36" s="280"/>
+      <c r="T36" s="280"/>
+      <c r="U36" s="280"/>
+      <c r="V36" s="280"/>
+      <c r="W36" s="280"/>
+      <c r="X36" s="280"/>
+      <c r="Y36" s="280"/>
+      <c r="Z36" s="281"/>
       <c r="AC36" s="69"/>
       <c r="AG36" s="123"/>
     </row>
     <row r="37" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="220" t="s">
+      <c r="A37" s="248" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="221"/>
-      <c r="C37" s="221"/>
-      <c r="D37" s="221"/>
-      <c r="E37" s="221"/>
-      <c r="F37" s="221"/>
-      <c r="G37" s="221"/>
-      <c r="H37" s="221"/>
-      <c r="I37" s="221"/>
-      <c r="J37" s="221"/>
-      <c r="K37" s="221"/>
-      <c r="L37" s="221"/>
-      <c r="M37" s="221"/>
+      <c r="B37" s="249"/>
+      <c r="C37" s="249"/>
+      <c r="D37" s="249"/>
+      <c r="E37" s="249"/>
+      <c r="F37" s="249"/>
+      <c r="G37" s="249"/>
+      <c r="H37" s="249"/>
+      <c r="I37" s="249"/>
+      <c r="J37" s="249"/>
+      <c r="K37" s="249"/>
+      <c r="L37" s="249"/>
+      <c r="M37" s="249"/>
       <c r="N37" s="107"/>
       <c r="O37" s="107"/>
       <c r="P37" s="107"/>
-      <c r="Q37" s="196" t="s">
+      <c r="Q37" s="210" t="s">
         <v>200</v>
       </c>
-      <c r="R37" s="196"/>
-      <c r="S37" s="196"/>
-      <c r="T37" s="196"/>
-      <c r="U37" s="196"/>
-      <c r="V37" s="196"/>
-      <c r="W37" s="196"/>
-      <c r="X37" s="196"/>
-      <c r="Y37" s="196"/>
-      <c r="Z37" s="197"/>
+      <c r="R37" s="210"/>
+      <c r="S37" s="210"/>
+      <c r="T37" s="210"/>
+      <c r="U37" s="210"/>
+      <c r="V37" s="210"/>
+      <c r="W37" s="210"/>
+      <c r="X37" s="210"/>
+      <c r="Y37" s="210"/>
+      <c r="Z37" s="211"/>
     </row>
     <row r="38" spans="1:33" ht="0.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="71"/>
@@ -4837,13 +5341,13 @@
       <c r="AG46" s="128"/>
     </row>
     <row r="47" spans="1:33" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="198"/>
-      <c r="B47" s="199"/>
-      <c r="C47" s="199"/>
-      <c r="D47" s="199"/>
-      <c r="E47" s="199"/>
-      <c r="F47" s="199"/>
-      <c r="G47" s="199"/>
+      <c r="A47" s="282"/>
+      <c r="B47" s="283"/>
+      <c r="C47" s="283"/>
+      <c r="D47" s="283"/>
+      <c r="E47" s="283"/>
+      <c r="F47" s="283"/>
+      <c r="G47" s="283"/>
       <c r="H47" s="42" t="s">
         <v>55</v>
       </c>
@@ -4935,38 +5439,38 @@
       <c r="AG49" s="125"/>
     </row>
     <row r="50" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="238" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,8,FALSE)</f>
+      <c r="A50" s="302" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,8,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B50" s="239"/>
-      <c r="C50" s="239"/>
-      <c r="D50" s="239"/>
-      <c r="E50" s="239"/>
-      <c r="F50" s="239"/>
-      <c r="G50" s="239"/>
-      <c r="H50" s="239"/>
-      <c r="I50" s="239"/>
-      <c r="J50" s="239"/>
-      <c r="K50" s="239"/>
-      <c r="L50" s="239"/>
-      <c r="M50" s="239"/>
-      <c r="N50" s="239"/>
-      <c r="O50" s="239"/>
-      <c r="P50" s="239"/>
-      <c r="Q50" s="239"/>
-      <c r="R50" s="239"/>
-      <c r="S50" s="239"/>
-      <c r="T50" s="239"/>
-      <c r="U50" s="239"/>
-      <c r="V50" s="239"/>
-      <c r="W50" s="239"/>
+      <c r="B50" s="187"/>
+      <c r="C50" s="187"/>
+      <c r="D50" s="187"/>
+      <c r="E50" s="187"/>
+      <c r="F50" s="187"/>
+      <c r="G50" s="187"/>
+      <c r="H50" s="187"/>
+      <c r="I50" s="187"/>
+      <c r="J50" s="187"/>
+      <c r="K50" s="187"/>
+      <c r="L50" s="187"/>
+      <c r="M50" s="187"/>
+      <c r="N50" s="187"/>
+      <c r="O50" s="187"/>
+      <c r="P50" s="187"/>
+      <c r="Q50" s="187"/>
+      <c r="R50" s="187"/>
+      <c r="S50" s="187"/>
+      <c r="T50" s="187"/>
+      <c r="U50" s="187"/>
+      <c r="V50" s="187"/>
+      <c r="W50" s="187"/>
       <c r="X50" s="60"/>
-      <c r="Y50" s="238" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,9,FALSE)</f>
+      <c r="Y50" s="302" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,9,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Z50" s="285"/>
+      <c r="Z50" s="188"/>
     </row>
     <row r="51" spans="1:33" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
@@ -4974,15 +5478,15 @@
       </c>
       <c r="B51" s="60"/>
       <c r="C51" s="60"/>
-      <c r="D51" s="60" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,10,FALSE)</f>
+      <c r="D51" s="304" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,10,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="F51" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="196"/>
-      <c r="H51" s="196"/>
+      <c r="G51" s="210"/>
+      <c r="H51" s="210"/>
       <c r="I51" s="79"/>
       <c r="J51" s="37" t="s">
         <v>6</v>
@@ -4994,20 +5498,20 @@
         <v>37</v>
       </c>
       <c r="O51" s="79"/>
-      <c r="P51" s="264" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,11,FALSE)</f>
+      <c r="P51" s="303" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,11,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="Q51" s="264"/>
-      <c r="R51" s="264"/>
-      <c r="S51" s="264"/>
-      <c r="T51" s="264"/>
-      <c r="U51" s="264"/>
-      <c r="V51" s="264"/>
-      <c r="W51" s="264"/>
-      <c r="X51" s="264"/>
-      <c r="Y51" s="264"/>
-      <c r="Z51" s="265"/>
+      <c r="Q51" s="207"/>
+      <c r="R51" s="207"/>
+      <c r="S51" s="207"/>
+      <c r="T51" s="207"/>
+      <c r="U51" s="207"/>
+      <c r="V51" s="207"/>
+      <c r="W51" s="207"/>
+      <c r="X51" s="207"/>
+      <c r="Y51" s="207"/>
+      <c r="Z51" s="208"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="20" t="s">
@@ -5046,47 +5550,47 @@
       <c r="Z52" s="72"/>
     </row>
     <row r="53" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="238" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,15,FALSE)</f>
+      <c r="A53" s="302" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,15,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="B53" s="239"/>
-      <c r="C53" s="239"/>
-      <c r="D53" s="239"/>
-      <c r="E53" s="239"/>
-      <c r="F53" s="239"/>
-      <c r="G53" s="239"/>
-      <c r="H53" s="239"/>
-      <c r="I53" s="239"/>
+      <c r="B53" s="187"/>
+      <c r="C53" s="187"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="187"/>
+      <c r="F53" s="187"/>
+      <c r="G53" s="187"/>
+      <c r="H53" s="187"/>
+      <c r="I53" s="187"/>
       <c r="J53" s="60"/>
-      <c r="K53" s="228" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,17,FALSE)</f>
+      <c r="K53" s="301" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,17,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L53" s="196"/>
-      <c r="M53" s="196"/>
-      <c r="N53" s="196"/>
-      <c r="O53" s="196"/>
+      <c r="L53" s="210"/>
+      <c r="M53" s="210"/>
+      <c r="N53" s="210"/>
+      <c r="O53" s="210"/>
       <c r="P53" s="79"/>
-      <c r="Q53" s="228" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,16,FALSE)</f>
+      <c r="Q53" s="301" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,16,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="R53" s="196"/>
+      <c r="R53" s="210"/>
       <c r="S53" s="79"/>
-      <c r="T53" s="228" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,12,FALSE)</f>
+      <c r="T53" s="301" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,12,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="U53" s="196"/>
-      <c r="V53" s="196" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,13,FALSE)</f>
+      <c r="U53" s="210"/>
+      <c r="V53" s="298" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,13,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="W53" s="196"/>
-      <c r="X53" s="196"/>
-      <c r="Y53" s="196"/>
-      <c r="Z53" s="197"/>
+      <c r="W53" s="210"/>
+      <c r="X53" s="210"/>
+      <c r="Y53" s="210"/>
+      <c r="Z53" s="211"/>
     </row>
     <row r="54" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
@@ -5123,161 +5627,161 @@
     </row>
     <row r="55" spans="1:33" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="117"/>
-      <c r="B55" s="107" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,25,FALSE)</f>
+      <c r="B55" s="299" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,25,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="C55" s="196" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,26,FALSE)</f>
+      <c r="C55" s="298" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,26,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="D55" s="196"/>
-      <c r="E55" s="196"/>
+      <c r="D55" s="210"/>
+      <c r="E55" s="210"/>
       <c r="F55" s="107"/>
       <c r="G55" s="107"/>
       <c r="H55" s="107"/>
       <c r="I55" s="84"/>
       <c r="J55" s="84"/>
-      <c r="K55" s="240" t="e">
-        <f>VLOOKUP(AB11,dados!A1:BH4,21,FALSE)</f>
+      <c r="K55" s="300" t="e">
+        <f>VLOOKUP(AB11,dados!A1:BH15,21,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="L55" s="241"/>
-      <c r="M55" s="241"/>
-      <c r="N55" s="241"/>
-      <c r="O55" s="241"/>
-      <c r="P55" s="241"/>
-      <c r="Q55" s="241"/>
-      <c r="R55" s="241"/>
-      <c r="S55" s="241"/>
-      <c r="T55" s="241"/>
-      <c r="U55" s="241"/>
-      <c r="V55" s="241"/>
-      <c r="W55" s="241"/>
-      <c r="X55" s="241"/>
-      <c r="Y55" s="241"/>
-      <c r="Z55" s="242"/>
+      <c r="L55" s="264"/>
+      <c r="M55" s="264"/>
+      <c r="N55" s="264"/>
+      <c r="O55" s="264"/>
+      <c r="P55" s="264"/>
+      <c r="Q55" s="264"/>
+      <c r="R55" s="264"/>
+      <c r="S55" s="264"/>
+      <c r="T55" s="264"/>
+      <c r="U55" s="264"/>
+      <c r="V55" s="264"/>
+      <c r="W55" s="264"/>
+      <c r="X55" s="264"/>
+      <c r="Y55" s="264"/>
+      <c r="Z55" s="265"/>
     </row>
     <row r="56" spans="1:33" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="243"/>
-      <c r="B56" s="244"/>
-      <c r="C56" s="244"/>
-      <c r="D56" s="244"/>
-      <c r="E56" s="244"/>
-      <c r="F56" s="244"/>
-      <c r="G56" s="244"/>
-      <c r="H56" s="244"/>
-      <c r="I56" s="244"/>
-      <c r="J56" s="244"/>
-      <c r="K56" s="244"/>
-      <c r="L56" s="244"/>
-      <c r="M56" s="244"/>
-      <c r="N56" s="244"/>
-      <c r="O56" s="244"/>
-      <c r="P56" s="244"/>
-      <c r="Q56" s="244"/>
-      <c r="R56" s="244"/>
-      <c r="S56" s="244"/>
-      <c r="T56" s="244"/>
-      <c r="U56" s="244"/>
-      <c r="V56" s="244"/>
-      <c r="W56" s="244"/>
-      <c r="X56" s="244"/>
-      <c r="Y56" s="244"/>
-      <c r="Z56" s="245"/>
+      <c r="A56" s="266"/>
+      <c r="B56" s="267"/>
+      <c r="C56" s="267"/>
+      <c r="D56" s="267"/>
+      <c r="E56" s="267"/>
+      <c r="F56" s="267"/>
+      <c r="G56" s="267"/>
+      <c r="H56" s="267"/>
+      <c r="I56" s="267"/>
+      <c r="J56" s="267"/>
+      <c r="K56" s="267"/>
+      <c r="L56" s="267"/>
+      <c r="M56" s="267"/>
+      <c r="N56" s="267"/>
+      <c r="O56" s="267"/>
+      <c r="P56" s="267"/>
+      <c r="Q56" s="267"/>
+      <c r="R56" s="267"/>
+      <c r="S56" s="267"/>
+      <c r="T56" s="267"/>
+      <c r="U56" s="267"/>
+      <c r="V56" s="267"/>
+      <c r="W56" s="267"/>
+      <c r="X56" s="267"/>
+      <c r="Y56" s="267"/>
+      <c r="Z56" s="268"/>
       <c r="AC56" s="4"/>
     </row>
     <row r="57" spans="1:33" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="186" t="s">
+      <c r="A57" s="275" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="187"/>
-      <c r="C57" s="187"/>
-      <c r="D57" s="187"/>
-      <c r="E57" s="187"/>
-      <c r="F57" s="187"/>
-      <c r="G57" s="187"/>
-      <c r="H57" s="187"/>
-      <c r="I57" s="187"/>
-      <c r="J57" s="187"/>
-      <c r="K57" s="187"/>
-      <c r="L57" s="187"/>
-      <c r="M57" s="187"/>
-      <c r="N57" s="187"/>
-      <c r="O57" s="187"/>
-      <c r="P57" s="187"/>
-      <c r="Q57" s="187"/>
-      <c r="R57" s="187"/>
-      <c r="S57" s="187"/>
-      <c r="T57" s="187"/>
-      <c r="U57" s="187"/>
-      <c r="V57" s="187"/>
-      <c r="W57" s="187"/>
-      <c r="X57" s="187"/>
-      <c r="Y57" s="187"/>
-      <c r="Z57" s="188"/>
+      <c r="B57" s="276"/>
+      <c r="C57" s="276"/>
+      <c r="D57" s="276"/>
+      <c r="E57" s="276"/>
+      <c r="F57" s="276"/>
+      <c r="G57" s="276"/>
+      <c r="H57" s="276"/>
+      <c r="I57" s="276"/>
+      <c r="J57" s="276"/>
+      <c r="K57" s="276"/>
+      <c r="L57" s="276"/>
+      <c r="M57" s="276"/>
+      <c r="N57" s="276"/>
+      <c r="O57" s="276"/>
+      <c r="P57" s="276"/>
+      <c r="Q57" s="276"/>
+      <c r="R57" s="276"/>
+      <c r="S57" s="276"/>
+      <c r="T57" s="276"/>
+      <c r="U57" s="276"/>
+      <c r="V57" s="276"/>
+      <c r="W57" s="276"/>
+      <c r="X57" s="276"/>
+      <c r="Y57" s="276"/>
+      <c r="Z57" s="277"/>
     </row>
     <row r="58" spans="1:33" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="183" t="s">
+      <c r="A58" s="272" t="s">
         <v>50</v>
       </c>
-      <c r="B58" s="184"/>
-      <c r="C58" s="184"/>
-      <c r="D58" s="184"/>
-      <c r="E58" s="184"/>
-      <c r="F58" s="184"/>
-      <c r="G58" s="184"/>
-      <c r="H58" s="184"/>
-      <c r="I58" s="184"/>
-      <c r="J58" s="184"/>
-      <c r="K58" s="184"/>
-      <c r="L58" s="184"/>
-      <c r="M58" s="184"/>
-      <c r="N58" s="184"/>
-      <c r="O58" s="184"/>
-      <c r="P58" s="184"/>
-      <c r="Q58" s="184"/>
-      <c r="R58" s="184"/>
-      <c r="S58" s="184"/>
-      <c r="T58" s="184"/>
-      <c r="U58" s="184"/>
-      <c r="V58" s="184"/>
-      <c r="W58" s="184"/>
-      <c r="X58" s="184"/>
-      <c r="Y58" s="184"/>
-      <c r="Z58" s="185"/>
+      <c r="B58" s="273"/>
+      <c r="C58" s="273"/>
+      <c r="D58" s="273"/>
+      <c r="E58" s="273"/>
+      <c r="F58" s="273"/>
+      <c r="G58" s="273"/>
+      <c r="H58" s="273"/>
+      <c r="I58" s="273"/>
+      <c r="J58" s="273"/>
+      <c r="K58" s="273"/>
+      <c r="L58" s="273"/>
+      <c r="M58" s="273"/>
+      <c r="N58" s="273"/>
+      <c r="O58" s="273"/>
+      <c r="P58" s="273"/>
+      <c r="Q58" s="273"/>
+      <c r="R58" s="273"/>
+      <c r="S58" s="273"/>
+      <c r="T58" s="273"/>
+      <c r="U58" s="273"/>
+      <c r="V58" s="273"/>
+      <c r="W58" s="273"/>
+      <c r="X58" s="273"/>
+      <c r="Y58" s="273"/>
+      <c r="Z58" s="274"/>
       <c r="AC58" s="90"/>
       <c r="AG58" s="123"/>
     </row>
     <row r="59" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="217" t="s">
+      <c r="A59" s="247" t="s">
         <v>22</v>
       </c>
-      <c r="B59" s="218"/>
-      <c r="C59" s="218"/>
-      <c r="D59" s="218"/>
-      <c r="E59" s="218"/>
-      <c r="F59" s="218"/>
-      <c r="G59" s="218"/>
-      <c r="H59" s="218"/>
-      <c r="I59" s="218"/>
-      <c r="J59" s="218"/>
-      <c r="K59" s="218"/>
-      <c r="L59" s="218"/>
-      <c r="M59" s="218"/>
-      <c r="N59" s="218"/>
-      <c r="O59" s="218"/>
-      <c r="P59" s="218"/>
-      <c r="Q59" s="218"/>
-      <c r="R59" s="218"/>
-      <c r="S59" s="218"/>
-      <c r="T59" s="218"/>
-      <c r="U59" s="218"/>
-      <c r="V59" s="218"/>
-      <c r="W59" s="218"/>
-      <c r="X59" s="218"/>
-      <c r="Y59" s="218"/>
-      <c r="Z59" s="219"/>
+      <c r="B59" s="175"/>
+      <c r="C59" s="175"/>
+      <c r="D59" s="175"/>
+      <c r="E59" s="175"/>
+      <c r="F59" s="175"/>
+      <c r="G59" s="175"/>
+      <c r="H59" s="175"/>
+      <c r="I59" s="175"/>
+      <c r="J59" s="175"/>
+      <c r="K59" s="175"/>
+      <c r="L59" s="175"/>
+      <c r="M59" s="175"/>
+      <c r="N59" s="175"/>
+      <c r="O59" s="175"/>
+      <c r="P59" s="175"/>
+      <c r="Q59" s="175"/>
+      <c r="R59" s="175"/>
+      <c r="S59" s="175"/>
+      <c r="T59" s="175"/>
+      <c r="U59" s="175"/>
+      <c r="V59" s="175"/>
+      <c r="W59" s="175"/>
+      <c r="X59" s="175"/>
+      <c r="Y59" s="175"/>
+      <c r="Z59" s="222"/>
       <c r="AC59" s="90"/>
     </row>
     <row r="60" spans="1:33" s="90" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5287,63 +5791,63 @@
       <c r="B60" s="75"/>
       <c r="C60" s="75"/>
       <c r="D60" s="75"/>
-      <c r="E60" s="271" t="e">
+      <c r="E60" s="170" t="e">
         <f>E16</f>
         <v>#N/A</v>
       </c>
-      <c r="F60" s="271"/>
-      <c r="G60" s="271"/>
-      <c r="H60" s="271"/>
-      <c r="I60" s="271"/>
-      <c r="J60" s="271"/>
-      <c r="K60" s="272"/>
-      <c r="L60" s="272"/>
-      <c r="M60" s="272"/>
-      <c r="N60" s="271"/>
-      <c r="O60" s="271"/>
-      <c r="P60" s="271"/>
-      <c r="Q60" s="271"/>
-      <c r="R60" s="271"/>
-      <c r="S60" s="271"/>
-      <c r="T60" s="271"/>
-      <c r="U60" s="271"/>
-      <c r="V60" s="271"/>
-      <c r="W60" s="271"/>
-      <c r="X60" s="271"/>
-      <c r="Y60" s="271"/>
-      <c r="Z60" s="273"/>
+      <c r="F60" s="170"/>
+      <c r="G60" s="170"/>
+      <c r="H60" s="170"/>
+      <c r="I60" s="170"/>
+      <c r="J60" s="170"/>
+      <c r="K60" s="171"/>
+      <c r="L60" s="171"/>
+      <c r="M60" s="171"/>
+      <c r="N60" s="170"/>
+      <c r="O60" s="170"/>
+      <c r="P60" s="170"/>
+      <c r="Q60" s="170"/>
+      <c r="R60" s="170"/>
+      <c r="S60" s="170"/>
+      <c r="T60" s="170"/>
+      <c r="U60" s="170"/>
+      <c r="V60" s="170"/>
+      <c r="W60" s="170"/>
+      <c r="X60" s="170"/>
+      <c r="Y60" s="170"/>
+      <c r="Z60" s="172"/>
       <c r="AG60" s="125"/>
     </row>
     <row r="61" spans="1:33" s="90" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="274" t="s">
+      <c r="A61" s="173" t="s">
         <v>201</v>
       </c>
-      <c r="B61" s="275"/>
-      <c r="C61" s="275"/>
-      <c r="D61" s="275"/>
-      <c r="E61" s="275"/>
-      <c r="F61" s="275"/>
-      <c r="G61" s="218" t="str">
+      <c r="B61" s="174"/>
+      <c r="C61" s="174"/>
+      <c r="D61" s="174"/>
+      <c r="E61" s="174"/>
+      <c r="F61" s="174"/>
+      <c r="G61" s="175" t="str">
         <f>P27</f>
         <v>1º módulo</v>
       </c>
-      <c r="H61" s="276"/>
-      <c r="I61" s="163" t="s">
+      <c r="H61" s="176"/>
+      <c r="I61" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="J61" s="163"/>
-      <c r="K61" s="163"/>
-      <c r="L61" s="163"/>
-      <c r="M61" s="163"/>
-      <c r="N61" s="277" t="e">
+      <c r="J61" s="164"/>
+      <c r="K61" s="164"/>
+      <c r="L61" s="164"/>
+      <c r="M61" s="164"/>
+      <c r="N61" s="177" t="e">
         <f>A27</f>
         <v>#N/A</v>
       </c>
-      <c r="O61" s="277"/>
-      <c r="P61" s="277"/>
-      <c r="Q61" s="277"/>
-      <c r="R61" s="277"/>
-      <c r="S61" s="277"/>
+      <c r="O61" s="177"/>
+      <c r="P61" s="177"/>
+      <c r="Q61" s="177"/>
+      <c r="R61" s="177"/>
+      <c r="S61" s="177"/>
       <c r="T61" s="57" t="s">
         <v>204</v>
       </c>
@@ -5356,39 +5860,39 @@
       <c r="AG61" s="125"/>
     </row>
     <row r="62" spans="1:33" s="90" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="236" t="s">
+      <c r="A62" s="262" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="237"/>
-      <c r="C62" s="237"/>
-      <c r="D62" s="237"/>
-      <c r="E62" s="233">
+      <c r="B62" s="263"/>
+      <c r="C62" s="263"/>
+      <c r="D62" s="263"/>
+      <c r="E62" s="223">
         <f ca="1">TODAY()</f>
-        <v>41626</v>
-      </c>
-      <c r="F62" s="234"/>
-      <c r="G62" s="235"/>
+        <v>41645</v>
+      </c>
+      <c r="F62" s="260"/>
+      <c r="G62" s="261"/>
       <c r="H62" s="121"/>
       <c r="I62" s="121"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
-      <c r="L62" s="189" t="s">
+      <c r="L62" s="213" t="s">
         <v>19</v>
       </c>
-      <c r="M62" s="189"/>
-      <c r="N62" s="230"/>
-      <c r="O62" s="230"/>
-      <c r="P62" s="230"/>
-      <c r="Q62" s="230"/>
-      <c r="R62" s="230"/>
-      <c r="S62" s="230"/>
-      <c r="T62" s="231"/>
-      <c r="U62" s="231"/>
-      <c r="V62" s="231"/>
-      <c r="W62" s="231"/>
-      <c r="X62" s="231"/>
-      <c r="Y62" s="231"/>
-      <c r="Z62" s="232"/>
+      <c r="M62" s="213"/>
+      <c r="N62" s="257"/>
+      <c r="O62" s="257"/>
+      <c r="P62" s="257"/>
+      <c r="Q62" s="257"/>
+      <c r="R62" s="257"/>
+      <c r="S62" s="257"/>
+      <c r="T62" s="258"/>
+      <c r="U62" s="258"/>
+      <c r="V62" s="258"/>
+      <c r="W62" s="258"/>
+      <c r="X62" s="258"/>
+      <c r="Y62" s="258"/>
+      <c r="Z62" s="259"/>
       <c r="AC62" s="69"/>
       <c r="AG62" s="125"/>
     </row>
@@ -5399,30 +5903,30 @@
       <c r="B63" s="130"/>
       <c r="C63" s="130"/>
       <c r="D63" s="130"/>
-      <c r="E63" s="233">
+      <c r="E63" s="223">
         <v>41477</v>
       </c>
-      <c r="F63" s="246"/>
-      <c r="G63" s="247"/>
+      <c r="F63" s="224"/>
+      <c r="G63" s="225"/>
       <c r="H63" s="75"/>
-      <c r="I63" s="254" t="s">
+      <c r="I63" s="233" t="s">
         <v>212</v>
       </c>
-      <c r="J63" s="255"/>
-      <c r="K63" s="256" t="e">
+      <c r="J63" s="234"/>
+      <c r="K63" s="214" t="e">
         <f>IF(A27=AC22,AH22,IF(A27=AC23,AH23,IF(A27=AC24,AH24,IF(A27=AC25,AH25,IF(A27=AC26,AH26,FALSE)))))</f>
         <v>#N/A</v>
       </c>
-      <c r="L63" s="256"/>
+      <c r="L63" s="214"/>
       <c r="M63" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="N63" s="256" t="e">
+      <c r="N63" s="214" t="e">
         <f>IF(A27=AC22,AI22,IF(A27=AC23,AI23,IF(A27=AC24,AI24,IF(A27=AC25,AI25,IF(A27=AC26,AI26,FALSE)))))</f>
         <v>#N/A</v>
       </c>
-      <c r="O63" s="256"/>
-      <c r="P63" s="266"/>
+      <c r="O63" s="214"/>
+      <c r="P63" s="215"/>
       <c r="Q63" s="75"/>
       <c r="R63" s="75"/>
       <c r="S63" s="75"/>
@@ -5437,496 +5941,496 @@
       <c r="AG63" s="125"/>
     </row>
     <row r="64" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="225"/>
-      <c r="B64" s="226"/>
-      <c r="C64" s="226"/>
-      <c r="D64" s="226"/>
-      <c r="E64" s="226"/>
-      <c r="F64" s="226"/>
-      <c r="G64" s="226"/>
-      <c r="H64" s="226"/>
-      <c r="I64" s="218"/>
-      <c r="J64" s="218"/>
-      <c r="K64" s="218"/>
-      <c r="L64" s="218"/>
-      <c r="M64" s="218"/>
-      <c r="N64" s="218"/>
-      <c r="O64" s="218"/>
-      <c r="P64" s="218"/>
-      <c r="Q64" s="218"/>
-      <c r="R64" s="218"/>
-      <c r="S64" s="218"/>
-      <c r="T64" s="218"/>
-      <c r="U64" s="218"/>
-      <c r="V64" s="218"/>
-      <c r="W64" s="218"/>
-      <c r="X64" s="218"/>
-      <c r="Y64" s="218"/>
-      <c r="Z64" s="219"/>
+      <c r="A64" s="220"/>
+      <c r="B64" s="221"/>
+      <c r="C64" s="221"/>
+      <c r="D64" s="221"/>
+      <c r="E64" s="221"/>
+      <c r="F64" s="221"/>
+      <c r="G64" s="221"/>
+      <c r="H64" s="221"/>
+      <c r="I64" s="175"/>
+      <c r="J64" s="175"/>
+      <c r="K64" s="175"/>
+      <c r="L64" s="175"/>
+      <c r="M64" s="175"/>
+      <c r="N64" s="175"/>
+      <c r="O64" s="175"/>
+      <c r="P64" s="175"/>
+      <c r="Q64" s="175"/>
+      <c r="R64" s="175"/>
+      <c r="S64" s="175"/>
+      <c r="T64" s="175"/>
+      <c r="U64" s="175"/>
+      <c r="V64" s="175"/>
+      <c r="W64" s="175"/>
+      <c r="X64" s="175"/>
+      <c r="Y64" s="175"/>
+      <c r="Z64" s="222"/>
     </row>
     <row r="65" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="225"/>
-      <c r="B65" s="226"/>
-      <c r="C65" s="226"/>
-      <c r="D65" s="226"/>
-      <c r="E65" s="226"/>
-      <c r="F65" s="226"/>
-      <c r="G65" s="226"/>
-      <c r="H65" s="226"/>
-      <c r="I65" s="218"/>
-      <c r="J65" s="218"/>
-      <c r="K65" s="218"/>
-      <c r="L65" s="218"/>
-      <c r="M65" s="218"/>
-      <c r="N65" s="218"/>
-      <c r="O65" s="218"/>
-      <c r="P65" s="218"/>
-      <c r="Q65" s="218"/>
-      <c r="R65" s="218"/>
-      <c r="S65" s="218"/>
-      <c r="T65" s="218"/>
-      <c r="U65" s="218"/>
-      <c r="V65" s="218"/>
-      <c r="W65" s="218"/>
-      <c r="X65" s="218"/>
-      <c r="Y65" s="218"/>
-      <c r="Z65" s="219"/>
+      <c r="A65" s="220"/>
+      <c r="B65" s="221"/>
+      <c r="C65" s="221"/>
+      <c r="D65" s="221"/>
+      <c r="E65" s="221"/>
+      <c r="F65" s="221"/>
+      <c r="G65" s="221"/>
+      <c r="H65" s="221"/>
+      <c r="I65" s="175"/>
+      <c r="J65" s="175"/>
+      <c r="K65" s="175"/>
+      <c r="L65" s="175"/>
+      <c r="M65" s="175"/>
+      <c r="N65" s="175"/>
+      <c r="O65" s="175"/>
+      <c r="P65" s="175"/>
+      <c r="Q65" s="175"/>
+      <c r="R65" s="175"/>
+      <c r="S65" s="175"/>
+      <c r="T65" s="175"/>
+      <c r="U65" s="175"/>
+      <c r="V65" s="175"/>
+      <c r="W65" s="175"/>
+      <c r="X65" s="175"/>
+      <c r="Y65" s="175"/>
+      <c r="Z65" s="222"/>
       <c r="AC65" s="60"/>
     </row>
     <row r="66" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="225"/>
-      <c r="B66" s="226"/>
-      <c r="C66" s="226"/>
-      <c r="D66" s="226"/>
-      <c r="E66" s="226"/>
-      <c r="F66" s="226"/>
-      <c r="G66" s="226"/>
-      <c r="H66" s="226"/>
-      <c r="I66" s="218"/>
-      <c r="J66" s="218"/>
-      <c r="K66" s="218"/>
-      <c r="L66" s="218"/>
-      <c r="M66" s="218"/>
-      <c r="N66" s="218"/>
-      <c r="O66" s="218"/>
-      <c r="P66" s="218"/>
-      <c r="Q66" s="218"/>
-      <c r="R66" s="218"/>
-      <c r="S66" s="218"/>
-      <c r="T66" s="218"/>
-      <c r="U66" s="218"/>
-      <c r="V66" s="218"/>
-      <c r="W66" s="218"/>
-      <c r="X66" s="218"/>
-      <c r="Y66" s="218"/>
-      <c r="Z66" s="219"/>
+      <c r="A66" s="220"/>
+      <c r="B66" s="221"/>
+      <c r="C66" s="221"/>
+      <c r="D66" s="221"/>
+      <c r="E66" s="221"/>
+      <c r="F66" s="221"/>
+      <c r="G66" s="221"/>
+      <c r="H66" s="221"/>
+      <c r="I66" s="175"/>
+      <c r="J66" s="175"/>
+      <c r="K66" s="175"/>
+      <c r="L66" s="175"/>
+      <c r="M66" s="175"/>
+      <c r="N66" s="175"/>
+      <c r="O66" s="175"/>
+      <c r="P66" s="175"/>
+      <c r="Q66" s="175"/>
+      <c r="R66" s="175"/>
+      <c r="S66" s="175"/>
+      <c r="T66" s="175"/>
+      <c r="U66" s="175"/>
+      <c r="V66" s="175"/>
+      <c r="W66" s="175"/>
+      <c r="X66" s="175"/>
+      <c r="Y66" s="175"/>
+      <c r="Z66" s="222"/>
     </row>
     <row r="67" spans="1:33" s="60" customFormat="1" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="225"/>
-      <c r="B67" s="226"/>
-      <c r="C67" s="226"/>
-      <c r="D67" s="226"/>
-      <c r="E67" s="226"/>
-      <c r="F67" s="226"/>
-      <c r="G67" s="226"/>
-      <c r="H67" s="226"/>
-      <c r="I67" s="226"/>
-      <c r="J67" s="226"/>
-      <c r="K67" s="226"/>
-      <c r="L67" s="226"/>
-      <c r="M67" s="226"/>
-      <c r="N67" s="226"/>
-      <c r="O67" s="226"/>
-      <c r="P67" s="226"/>
-      <c r="Q67" s="226"/>
-      <c r="R67" s="226"/>
-      <c r="S67" s="226"/>
-      <c r="T67" s="226"/>
-      <c r="U67" s="226"/>
-      <c r="V67" s="226"/>
-      <c r="W67" s="226"/>
-      <c r="X67" s="226"/>
-      <c r="Y67" s="226"/>
-      <c r="Z67" s="227"/>
+      <c r="A67" s="220"/>
+      <c r="B67" s="221"/>
+      <c r="C67" s="221"/>
+      <c r="D67" s="221"/>
+      <c r="E67" s="221"/>
+      <c r="F67" s="221"/>
+      <c r="G67" s="221"/>
+      <c r="H67" s="221"/>
+      <c r="I67" s="221"/>
+      <c r="J67" s="221"/>
+      <c r="K67" s="221"/>
+      <c r="L67" s="221"/>
+      <c r="M67" s="221"/>
+      <c r="N67" s="221"/>
+      <c r="O67" s="221"/>
+      <c r="P67" s="221"/>
+      <c r="Q67" s="221"/>
+      <c r="R67" s="221"/>
+      <c r="S67" s="221"/>
+      <c r="T67" s="221"/>
+      <c r="U67" s="221"/>
+      <c r="V67" s="221"/>
+      <c r="W67" s="221"/>
+      <c r="X67" s="221"/>
+      <c r="Y67" s="221"/>
+      <c r="Z67" s="226"/>
       <c r="AG67" s="70"/>
     </row>
     <row r="68" spans="1:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="251"/>
-      <c r="B68" s="252"/>
-      <c r="C68" s="252"/>
-      <c r="D68" s="252"/>
-      <c r="E68" s="252"/>
-      <c r="F68" s="252"/>
-      <c r="G68" s="252"/>
-      <c r="H68" s="252"/>
-      <c r="I68" s="252"/>
-      <c r="J68" s="252"/>
-      <c r="K68" s="252"/>
-      <c r="L68" s="252"/>
-      <c r="M68" s="252"/>
-      <c r="N68" s="252"/>
-      <c r="O68" s="252"/>
-      <c r="P68" s="252"/>
-      <c r="Q68" s="252"/>
-      <c r="R68" s="252"/>
-      <c r="S68" s="252"/>
-      <c r="T68" s="252"/>
-      <c r="U68" s="252"/>
-      <c r="V68" s="252"/>
-      <c r="W68" s="252"/>
-      <c r="X68" s="252"/>
-      <c r="Y68" s="252"/>
-      <c r="Z68" s="253"/>
+      <c r="A68" s="230"/>
+      <c r="B68" s="231"/>
+      <c r="C68" s="231"/>
+      <c r="D68" s="231"/>
+      <c r="E68" s="231"/>
+      <c r="F68" s="231"/>
+      <c r="G68" s="231"/>
+      <c r="H68" s="231"/>
+      <c r="I68" s="231"/>
+      <c r="J68" s="231"/>
+      <c r="K68" s="231"/>
+      <c r="L68" s="231"/>
+      <c r="M68" s="231"/>
+      <c r="N68" s="231"/>
+      <c r="O68" s="231"/>
+      <c r="P68" s="231"/>
+      <c r="Q68" s="231"/>
+      <c r="R68" s="231"/>
+      <c r="S68" s="231"/>
+      <c r="T68" s="231"/>
+      <c r="U68" s="231"/>
+      <c r="V68" s="231"/>
+      <c r="W68" s="231"/>
+      <c r="X68" s="231"/>
+      <c r="Y68" s="231"/>
+      <c r="Z68" s="232"/>
       <c r="AC68" s="17"/>
     </row>
     <row r="69" spans="1:33" s="60" customFormat="1" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="257"/>
-      <c r="B69" s="258"/>
-      <c r="C69" s="258"/>
-      <c r="D69" s="258"/>
-      <c r="E69" s="258"/>
-      <c r="F69" s="258"/>
-      <c r="G69" s="258"/>
-      <c r="H69" s="258"/>
-      <c r="I69" s="258"/>
-      <c r="J69" s="258"/>
-      <c r="K69" s="258"/>
-      <c r="L69" s="258"/>
-      <c r="M69" s="258"/>
-      <c r="N69" s="258"/>
-      <c r="O69" s="258"/>
-      <c r="P69" s="258"/>
-      <c r="Q69" s="258"/>
-      <c r="R69" s="258"/>
-      <c r="S69" s="258"/>
-      <c r="T69" s="258"/>
-      <c r="U69" s="258"/>
-      <c r="V69" s="258"/>
-      <c r="W69" s="258"/>
-      <c r="X69" s="258"/>
-      <c r="Y69" s="258"/>
-      <c r="Z69" s="259"/>
+      <c r="A69" s="235"/>
+      <c r="B69" s="236"/>
+      <c r="C69" s="236"/>
+      <c r="D69" s="236"/>
+      <c r="E69" s="236"/>
+      <c r="F69" s="236"/>
+      <c r="G69" s="236"/>
+      <c r="H69" s="236"/>
+      <c r="I69" s="236"/>
+      <c r="J69" s="236"/>
+      <c r="K69" s="236"/>
+      <c r="L69" s="236"/>
+      <c r="M69" s="236"/>
+      <c r="N69" s="236"/>
+      <c r="O69" s="236"/>
+      <c r="P69" s="236"/>
+      <c r="Q69" s="236"/>
+      <c r="R69" s="236"/>
+      <c r="S69" s="236"/>
+      <c r="T69" s="236"/>
+      <c r="U69" s="236"/>
+      <c r="V69" s="236"/>
+      <c r="W69" s="236"/>
+      <c r="X69" s="236"/>
+      <c r="Y69" s="236"/>
+      <c r="Z69" s="237"/>
       <c r="AC69" s="69"/>
       <c r="AG69" s="70"/>
     </row>
     <row r="70" spans="1:33" s="17" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="248"/>
-      <c r="B70" s="249"/>
-      <c r="C70" s="249"/>
-      <c r="D70" s="249"/>
-      <c r="E70" s="249"/>
-      <c r="F70" s="249"/>
-      <c r="G70" s="249"/>
-      <c r="H70" s="249"/>
-      <c r="I70" s="249"/>
-      <c r="J70" s="249"/>
-      <c r="K70" s="249"/>
-      <c r="L70" s="249"/>
-      <c r="M70" s="249"/>
-      <c r="N70" s="250"/>
-      <c r="O70" s="248"/>
-      <c r="P70" s="249"/>
-      <c r="Q70" s="249"/>
-      <c r="R70" s="249"/>
-      <c r="S70" s="249"/>
-      <c r="T70" s="249"/>
-      <c r="U70" s="249"/>
-      <c r="V70" s="249"/>
-      <c r="W70" s="249"/>
-      <c r="X70" s="249"/>
-      <c r="Y70" s="249"/>
-      <c r="Z70" s="250"/>
+      <c r="A70" s="227"/>
+      <c r="B70" s="228"/>
+      <c r="C70" s="228"/>
+      <c r="D70" s="228"/>
+      <c r="E70" s="228"/>
+      <c r="F70" s="228"/>
+      <c r="G70" s="228"/>
+      <c r="H70" s="228"/>
+      <c r="I70" s="228"/>
+      <c r="J70" s="228"/>
+      <c r="K70" s="228"/>
+      <c r="L70" s="228"/>
+      <c r="M70" s="228"/>
+      <c r="N70" s="229"/>
+      <c r="O70" s="227"/>
+      <c r="P70" s="228"/>
+      <c r="Q70" s="228"/>
+      <c r="R70" s="228"/>
+      <c r="S70" s="228"/>
+      <c r="T70" s="228"/>
+      <c r="U70" s="228"/>
+      <c r="V70" s="228"/>
+      <c r="W70" s="228"/>
+      <c r="X70" s="228"/>
+      <c r="Y70" s="228"/>
+      <c r="Z70" s="229"/>
       <c r="AC70" s="4"/>
       <c r="AG70" s="129"/>
     </row>
     <row r="71" spans="1:33" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="200"/>
-      <c r="B71" s="201"/>
-      <c r="C71" s="201"/>
-      <c r="D71" s="202"/>
-      <c r="E71" s="202"/>
-      <c r="F71" s="202"/>
-      <c r="G71" s="202"/>
-      <c r="H71" s="202"/>
-      <c r="I71" s="202"/>
-      <c r="J71" s="202"/>
-      <c r="K71" s="202"/>
-      <c r="L71" s="202"/>
-      <c r="M71" s="202"/>
-      <c r="N71" s="203"/>
+      <c r="A71" s="287"/>
+      <c r="B71" s="288"/>
+      <c r="C71" s="288"/>
+      <c r="D71" s="289"/>
+      <c r="E71" s="289"/>
+      <c r="F71" s="289"/>
+      <c r="G71" s="289"/>
+      <c r="H71" s="289"/>
+      <c r="I71" s="289"/>
+      <c r="J71" s="289"/>
+      <c r="K71" s="289"/>
+      <c r="L71" s="289"/>
+      <c r="M71" s="289"/>
+      <c r="N71" s="290"/>
       <c r="O71" s="28"/>
       <c r="P71" s="29"/>
       <c r="Q71" s="30"/>
-      <c r="R71" s="202"/>
-      <c r="S71" s="202"/>
-      <c r="T71" s="202"/>
-      <c r="U71" s="202"/>
-      <c r="V71" s="204"/>
-      <c r="W71" s="205"/>
-      <c r="X71" s="205"/>
-      <c r="Y71" s="205"/>
-      <c r="Z71" s="206"/>
+      <c r="R71" s="289"/>
+      <c r="S71" s="289"/>
+      <c r="T71" s="289"/>
+      <c r="U71" s="289"/>
+      <c r="V71" s="291"/>
+      <c r="W71" s="292"/>
+      <c r="X71" s="292"/>
+      <c r="Y71" s="292"/>
+      <c r="Z71" s="293"/>
       <c r="AC71" s="4"/>
     </row>
     <row r="72" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="179"/>
-      <c r="B72" s="162"/>
-      <c r="C72" s="162"/>
-      <c r="D72" s="166"/>
-      <c r="E72" s="166"/>
-      <c r="F72" s="166"/>
-      <c r="G72" s="166"/>
-      <c r="H72" s="166"/>
-      <c r="I72" s="166"/>
-      <c r="J72" s="166"/>
-      <c r="K72" s="166"/>
-      <c r="L72" s="166"/>
-      <c r="M72" s="166"/>
-      <c r="N72" s="167"/>
-      <c r="O72" s="168"/>
-      <c r="P72" s="169"/>
-      <c r="Q72" s="170"/>
-      <c r="R72" s="162"/>
-      <c r="S72" s="162"/>
-      <c r="T72" s="162"/>
-      <c r="U72" s="162"/>
-      <c r="V72" s="163"/>
-      <c r="W72" s="163"/>
-      <c r="X72" s="163"/>
-      <c r="Y72" s="163"/>
-      <c r="Z72" s="164"/>
+      <c r="A72" s="250"/>
+      <c r="B72" s="251"/>
+      <c r="C72" s="251"/>
+      <c r="D72" s="284"/>
+      <c r="E72" s="284"/>
+      <c r="F72" s="284"/>
+      <c r="G72" s="284"/>
+      <c r="H72" s="284"/>
+      <c r="I72" s="284"/>
+      <c r="J72" s="284"/>
+      <c r="K72" s="284"/>
+      <c r="L72" s="284"/>
+      <c r="M72" s="284"/>
+      <c r="N72" s="285"/>
+      <c r="O72" s="269"/>
+      <c r="P72" s="270"/>
+      <c r="Q72" s="271"/>
+      <c r="R72" s="251"/>
+      <c r="S72" s="251"/>
+      <c r="T72" s="251"/>
+      <c r="U72" s="251"/>
+      <c r="V72" s="164"/>
+      <c r="W72" s="164"/>
+      <c r="X72" s="164"/>
+      <c r="Y72" s="164"/>
+      <c r="Z72" s="256"/>
       <c r="AG72" s="123"/>
     </row>
     <row r="73" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="179"/>
-      <c r="B73" s="162"/>
-      <c r="C73" s="162"/>
-      <c r="D73" s="166"/>
-      <c r="E73" s="166"/>
-      <c r="F73" s="166"/>
-      <c r="G73" s="166"/>
-      <c r="H73" s="166"/>
-      <c r="I73" s="166"/>
-      <c r="J73" s="166"/>
-      <c r="K73" s="166"/>
-      <c r="L73" s="166"/>
-      <c r="M73" s="166"/>
-      <c r="N73" s="167"/>
-      <c r="O73" s="168"/>
-      <c r="P73" s="169"/>
-      <c r="Q73" s="170"/>
-      <c r="R73" s="162"/>
-      <c r="S73" s="162"/>
-      <c r="T73" s="165"/>
-      <c r="U73" s="165"/>
-      <c r="V73" s="163"/>
-      <c r="W73" s="163"/>
-      <c r="X73" s="163"/>
-      <c r="Y73" s="163"/>
-      <c r="Z73" s="164"/>
+      <c r="A73" s="250"/>
+      <c r="B73" s="251"/>
+      <c r="C73" s="251"/>
+      <c r="D73" s="284"/>
+      <c r="E73" s="284"/>
+      <c r="F73" s="284"/>
+      <c r="G73" s="284"/>
+      <c r="H73" s="284"/>
+      <c r="I73" s="284"/>
+      <c r="J73" s="284"/>
+      <c r="K73" s="284"/>
+      <c r="L73" s="284"/>
+      <c r="M73" s="284"/>
+      <c r="N73" s="285"/>
+      <c r="O73" s="269"/>
+      <c r="P73" s="270"/>
+      <c r="Q73" s="271"/>
+      <c r="R73" s="251"/>
+      <c r="S73" s="251"/>
+      <c r="T73" s="286"/>
+      <c r="U73" s="286"/>
+      <c r="V73" s="164"/>
+      <c r="W73" s="164"/>
+      <c r="X73" s="164"/>
+      <c r="Y73" s="164"/>
+      <c r="Z73" s="256"/>
       <c r="AG73" s="123"/>
     </row>
     <row r="74" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="179"/>
-      <c r="B74" s="162"/>
-      <c r="C74" s="162"/>
-      <c r="D74" s="166"/>
-      <c r="E74" s="166"/>
-      <c r="F74" s="166"/>
-      <c r="G74" s="166"/>
-      <c r="H74" s="166"/>
-      <c r="I74" s="166"/>
-      <c r="J74" s="166"/>
-      <c r="K74" s="166"/>
-      <c r="L74" s="166"/>
-      <c r="M74" s="166"/>
-      <c r="N74" s="167"/>
-      <c r="O74" s="168"/>
-      <c r="P74" s="169"/>
-      <c r="Q74" s="170"/>
-      <c r="R74" s="162"/>
-      <c r="S74" s="162"/>
-      <c r="T74" s="165"/>
-      <c r="U74" s="165"/>
-      <c r="V74" s="163"/>
-      <c r="W74" s="163"/>
-      <c r="X74" s="163"/>
-      <c r="Y74" s="163"/>
-      <c r="Z74" s="164"/>
+      <c r="A74" s="250"/>
+      <c r="B74" s="251"/>
+      <c r="C74" s="251"/>
+      <c r="D74" s="284"/>
+      <c r="E74" s="284"/>
+      <c r="F74" s="284"/>
+      <c r="G74" s="284"/>
+      <c r="H74" s="284"/>
+      <c r="I74" s="284"/>
+      <c r="J74" s="284"/>
+      <c r="K74" s="284"/>
+      <c r="L74" s="284"/>
+      <c r="M74" s="284"/>
+      <c r="N74" s="285"/>
+      <c r="O74" s="269"/>
+      <c r="P74" s="270"/>
+      <c r="Q74" s="271"/>
+      <c r="R74" s="251"/>
+      <c r="S74" s="251"/>
+      <c r="T74" s="286"/>
+      <c r="U74" s="286"/>
+      <c r="V74" s="164"/>
+      <c r="W74" s="164"/>
+      <c r="X74" s="164"/>
+      <c r="Y74" s="164"/>
+      <c r="Z74" s="256"/>
       <c r="AG74" s="123"/>
     </row>
     <row r="75" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="179"/>
-      <c r="B75" s="162"/>
-      <c r="C75" s="162"/>
-      <c r="D75" s="166"/>
-      <c r="E75" s="166"/>
-      <c r="F75" s="166"/>
-      <c r="G75" s="166"/>
-      <c r="H75" s="166"/>
-      <c r="I75" s="166"/>
-      <c r="J75" s="166"/>
-      <c r="K75" s="166"/>
-      <c r="L75" s="166"/>
-      <c r="M75" s="166"/>
-      <c r="N75" s="167"/>
-      <c r="O75" s="168"/>
-      <c r="P75" s="169"/>
-      <c r="Q75" s="170"/>
-      <c r="R75" s="162"/>
-      <c r="S75" s="162"/>
-      <c r="T75" s="165"/>
-      <c r="U75" s="165"/>
-      <c r="V75" s="163"/>
-      <c r="W75" s="163"/>
-      <c r="X75" s="163"/>
-      <c r="Y75" s="163"/>
-      <c r="Z75" s="164"/>
+      <c r="A75" s="250"/>
+      <c r="B75" s="251"/>
+      <c r="C75" s="251"/>
+      <c r="D75" s="284"/>
+      <c r="E75" s="284"/>
+      <c r="F75" s="284"/>
+      <c r="G75" s="284"/>
+      <c r="H75" s="284"/>
+      <c r="I75" s="284"/>
+      <c r="J75" s="284"/>
+      <c r="K75" s="284"/>
+      <c r="L75" s="284"/>
+      <c r="M75" s="284"/>
+      <c r="N75" s="285"/>
+      <c r="O75" s="269"/>
+      <c r="P75" s="270"/>
+      <c r="Q75" s="271"/>
+      <c r="R75" s="251"/>
+      <c r="S75" s="251"/>
+      <c r="T75" s="286"/>
+      <c r="U75" s="286"/>
+      <c r="V75" s="164"/>
+      <c r="W75" s="164"/>
+      <c r="X75" s="164"/>
+      <c r="Y75" s="164"/>
+      <c r="Z75" s="256"/>
       <c r="AG75" s="123"/>
     </row>
     <row r="76" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="179"/>
-      <c r="B76" s="162"/>
-      <c r="C76" s="162"/>
-      <c r="D76" s="166"/>
-      <c r="E76" s="166"/>
-      <c r="F76" s="166"/>
-      <c r="G76" s="166"/>
-      <c r="H76" s="166"/>
-      <c r="I76" s="166"/>
-      <c r="J76" s="166"/>
-      <c r="K76" s="166"/>
-      <c r="L76" s="166"/>
-      <c r="M76" s="166"/>
-      <c r="N76" s="167"/>
-      <c r="O76" s="168"/>
-      <c r="P76" s="169"/>
-      <c r="Q76" s="170"/>
-      <c r="R76" s="162"/>
-      <c r="S76" s="162"/>
-      <c r="T76" s="165"/>
-      <c r="U76" s="165"/>
-      <c r="V76" s="163"/>
-      <c r="W76" s="163"/>
-      <c r="X76" s="163"/>
-      <c r="Y76" s="163"/>
-      <c r="Z76" s="164"/>
+      <c r="A76" s="250"/>
+      <c r="B76" s="251"/>
+      <c r="C76" s="251"/>
+      <c r="D76" s="284"/>
+      <c r="E76" s="284"/>
+      <c r="F76" s="284"/>
+      <c r="G76" s="284"/>
+      <c r="H76" s="284"/>
+      <c r="I76" s="284"/>
+      <c r="J76" s="284"/>
+      <c r="K76" s="284"/>
+      <c r="L76" s="284"/>
+      <c r="M76" s="284"/>
+      <c r="N76" s="285"/>
+      <c r="O76" s="269"/>
+      <c r="P76" s="270"/>
+      <c r="Q76" s="271"/>
+      <c r="R76" s="251"/>
+      <c r="S76" s="251"/>
+      <c r="T76" s="286"/>
+      <c r="U76" s="286"/>
+      <c r="V76" s="164"/>
+      <c r="W76" s="164"/>
+      <c r="X76" s="164"/>
+      <c r="Y76" s="164"/>
+      <c r="Z76" s="256"/>
       <c r="AG76" s="123"/>
     </row>
     <row r="77" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="179"/>
-      <c r="B77" s="162"/>
-      <c r="C77" s="162"/>
-      <c r="D77" s="166"/>
-      <c r="E77" s="166"/>
-      <c r="F77" s="166"/>
-      <c r="G77" s="166"/>
-      <c r="H77" s="166"/>
-      <c r="I77" s="166"/>
-      <c r="J77" s="166"/>
-      <c r="K77" s="166"/>
-      <c r="L77" s="166"/>
-      <c r="M77" s="166"/>
-      <c r="N77" s="167"/>
-      <c r="O77" s="168"/>
-      <c r="P77" s="169"/>
-      <c r="Q77" s="170"/>
-      <c r="R77" s="162"/>
-      <c r="S77" s="162"/>
-      <c r="T77" s="165"/>
-      <c r="U77" s="165"/>
-      <c r="V77" s="163"/>
-      <c r="W77" s="163"/>
-      <c r="X77" s="163"/>
-      <c r="Y77" s="163"/>
-      <c r="Z77" s="164"/>
+      <c r="A77" s="250"/>
+      <c r="B77" s="251"/>
+      <c r="C77" s="251"/>
+      <c r="D77" s="284"/>
+      <c r="E77" s="284"/>
+      <c r="F77" s="284"/>
+      <c r="G77" s="284"/>
+      <c r="H77" s="284"/>
+      <c r="I77" s="284"/>
+      <c r="J77" s="284"/>
+      <c r="K77" s="284"/>
+      <c r="L77" s="284"/>
+      <c r="M77" s="284"/>
+      <c r="N77" s="285"/>
+      <c r="O77" s="269"/>
+      <c r="P77" s="270"/>
+      <c r="Q77" s="271"/>
+      <c r="R77" s="251"/>
+      <c r="S77" s="251"/>
+      <c r="T77" s="286"/>
+      <c r="U77" s="286"/>
+      <c r="V77" s="164"/>
+      <c r="W77" s="164"/>
+      <c r="X77" s="164"/>
+      <c r="Y77" s="164"/>
+      <c r="Z77" s="256"/>
       <c r="AG77" s="123"/>
     </row>
     <row r="78" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="179"/>
-      <c r="B78" s="162"/>
-      <c r="C78" s="162"/>
-      <c r="D78" s="166"/>
-      <c r="E78" s="166"/>
-      <c r="F78" s="166"/>
-      <c r="G78" s="166"/>
-      <c r="H78" s="166"/>
-      <c r="I78" s="166"/>
-      <c r="J78" s="166"/>
-      <c r="K78" s="166"/>
-      <c r="L78" s="166"/>
-      <c r="M78" s="166"/>
-      <c r="N78" s="167"/>
-      <c r="O78" s="168"/>
-      <c r="P78" s="169"/>
-      <c r="Q78" s="170"/>
-      <c r="R78" s="162"/>
-      <c r="S78" s="162"/>
-      <c r="T78" s="165"/>
-      <c r="U78" s="165"/>
-      <c r="V78" s="163"/>
-      <c r="W78" s="163"/>
-      <c r="X78" s="163"/>
-      <c r="Y78" s="163"/>
-      <c r="Z78" s="164"/>
+      <c r="A78" s="250"/>
+      <c r="B78" s="251"/>
+      <c r="C78" s="251"/>
+      <c r="D78" s="284"/>
+      <c r="E78" s="284"/>
+      <c r="F78" s="284"/>
+      <c r="G78" s="284"/>
+      <c r="H78" s="284"/>
+      <c r="I78" s="284"/>
+      <c r="J78" s="284"/>
+      <c r="K78" s="284"/>
+      <c r="L78" s="284"/>
+      <c r="M78" s="284"/>
+      <c r="N78" s="285"/>
+      <c r="O78" s="269"/>
+      <c r="P78" s="270"/>
+      <c r="Q78" s="271"/>
+      <c r="R78" s="251"/>
+      <c r="S78" s="251"/>
+      <c r="T78" s="286"/>
+      <c r="U78" s="286"/>
+      <c r="V78" s="164"/>
+      <c r="W78" s="164"/>
+      <c r="X78" s="164"/>
+      <c r="Y78" s="164"/>
+      <c r="Z78" s="256"/>
       <c r="AG78" s="123"/>
     </row>
     <row r="79" spans="1:33" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="179"/>
-      <c r="B79" s="162"/>
-      <c r="C79" s="162"/>
-      <c r="D79" s="166"/>
-      <c r="E79" s="166"/>
-      <c r="F79" s="166"/>
-      <c r="G79" s="166"/>
-      <c r="H79" s="166"/>
-      <c r="I79" s="166"/>
-      <c r="J79" s="166"/>
-      <c r="K79" s="166"/>
-      <c r="L79" s="166"/>
-      <c r="M79" s="166"/>
-      <c r="N79" s="167"/>
-      <c r="O79" s="168"/>
-      <c r="P79" s="169"/>
-      <c r="Q79" s="170"/>
-      <c r="R79" s="162"/>
-      <c r="S79" s="162"/>
-      <c r="T79" s="165"/>
-      <c r="U79" s="165"/>
-      <c r="V79" s="163"/>
-      <c r="W79" s="163"/>
-      <c r="X79" s="163"/>
-      <c r="Y79" s="163"/>
-      <c r="Z79" s="164"/>
+      <c r="A79" s="250"/>
+      <c r="B79" s="251"/>
+      <c r="C79" s="251"/>
+      <c r="D79" s="284"/>
+      <c r="E79" s="284"/>
+      <c r="F79" s="284"/>
+      <c r="G79" s="284"/>
+      <c r="H79" s="284"/>
+      <c r="I79" s="284"/>
+      <c r="J79" s="284"/>
+      <c r="K79" s="284"/>
+      <c r="L79" s="284"/>
+      <c r="M79" s="284"/>
+      <c r="N79" s="285"/>
+      <c r="O79" s="269"/>
+      <c r="P79" s="270"/>
+      <c r="Q79" s="271"/>
+      <c r="R79" s="251"/>
+      <c r="S79" s="251"/>
+      <c r="T79" s="286"/>
+      <c r="U79" s="286"/>
+      <c r="V79" s="164"/>
+      <c r="W79" s="164"/>
+      <c r="X79" s="164"/>
+      <c r="Y79" s="164"/>
+      <c r="Z79" s="256"/>
       <c r="AG79" s="123"/>
     </row>
     <row r="80" spans="1:33" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="171"/>
-      <c r="B80" s="172"/>
-      <c r="C80" s="172"/>
-      <c r="D80" s="172"/>
-      <c r="E80" s="172"/>
-      <c r="F80" s="172"/>
-      <c r="G80" s="172"/>
-      <c r="H80" s="172"/>
-      <c r="I80" s="172"/>
-      <c r="J80" s="172"/>
-      <c r="K80" s="172"/>
-      <c r="L80" s="172"/>
-      <c r="M80" s="172"/>
-      <c r="N80" s="172"/>
-      <c r="O80" s="172"/>
-      <c r="P80" s="172"/>
-      <c r="Q80" s="172"/>
-      <c r="R80" s="172"/>
-      <c r="S80" s="172"/>
-      <c r="T80" s="172"/>
-      <c r="U80" s="172"/>
-      <c r="V80" s="172"/>
-      <c r="W80" s="172"/>
-      <c r="X80" s="172"/>
-      <c r="Y80" s="172"/>
-      <c r="Z80" s="173"/>
+      <c r="A80" s="294"/>
+      <c r="B80" s="295"/>
+      <c r="C80" s="295"/>
+      <c r="D80" s="295"/>
+      <c r="E80" s="295"/>
+      <c r="F80" s="295"/>
+      <c r="G80" s="295"/>
+      <c r="H80" s="295"/>
+      <c r="I80" s="295"/>
+      <c r="J80" s="295"/>
+      <c r="K80" s="295"/>
+      <c r="L80" s="295"/>
+      <c r="M80" s="295"/>
+      <c r="N80" s="295"/>
+      <c r="O80" s="295"/>
+      <c r="P80" s="295"/>
+      <c r="Q80" s="295"/>
+      <c r="R80" s="295"/>
+      <c r="S80" s="295"/>
+      <c r="T80" s="295"/>
+      <c r="U80" s="295"/>
+      <c r="V80" s="295"/>
+      <c r="W80" s="295"/>
+      <c r="X80" s="295"/>
+      <c r="Y80" s="295"/>
+      <c r="Z80" s="296"/>
       <c r="AG80" s="123"/>
     </row>
     <row r="81" spans="1:33" s="4" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6019,32 +6523,32 @@
       <c r="AG83" s="123"/>
     </row>
     <row r="84" spans="1:33" s="27" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="174"/>
-      <c r="B84" s="175"/>
-      <c r="C84" s="175"/>
-      <c r="D84" s="175"/>
-      <c r="E84" s="175"/>
-      <c r="F84" s="175"/>
-      <c r="G84" s="175"/>
-      <c r="H84" s="175"/>
-      <c r="I84" s="175"/>
-      <c r="J84" s="175"/>
-      <c r="K84" s="175"/>
-      <c r="L84" s="175"/>
-      <c r="M84" s="175"/>
-      <c r="N84" s="175"/>
-      <c r="O84" s="175"/>
-      <c r="P84" s="175"/>
-      <c r="Q84" s="175"/>
-      <c r="R84" s="175"/>
-      <c r="S84" s="175"/>
-      <c r="T84" s="175"/>
-      <c r="U84" s="175"/>
-      <c r="V84" s="175"/>
-      <c r="W84" s="175"/>
-      <c r="X84" s="175"/>
-      <c r="Y84" s="175"/>
-      <c r="Z84" s="176"/>
+      <c r="A84" s="217"/>
+      <c r="B84" s="218"/>
+      <c r="C84" s="218"/>
+      <c r="D84" s="218"/>
+      <c r="E84" s="218"/>
+      <c r="F84" s="218"/>
+      <c r="G84" s="218"/>
+      <c r="H84" s="218"/>
+      <c r="I84" s="218"/>
+      <c r="J84" s="218"/>
+      <c r="K84" s="218"/>
+      <c r="L84" s="218"/>
+      <c r="M84" s="218"/>
+      <c r="N84" s="218"/>
+      <c r="O84" s="218"/>
+      <c r="P84" s="218"/>
+      <c r="Q84" s="218"/>
+      <c r="R84" s="218"/>
+      <c r="S84" s="218"/>
+      <c r="T84" s="218"/>
+      <c r="U84" s="218"/>
+      <c r="V84" s="218"/>
+      <c r="W84" s="218"/>
+      <c r="X84" s="218"/>
+      <c r="Y84" s="218"/>
+      <c r="Z84" s="219"/>
       <c r="AC84" s="90"/>
       <c r="AG84" s="126"/>
     </row>
@@ -6078,58 +6582,58 @@
       <c r="AG85" s="125"/>
     </row>
     <row r="86" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="180"/>
-      <c r="B86" s="177"/>
-      <c r="C86" s="177"/>
-      <c r="D86" s="177"/>
-      <c r="E86" s="177"/>
-      <c r="F86" s="177"/>
-      <c r="G86" s="177"/>
-      <c r="H86" s="177"/>
-      <c r="I86" s="177"/>
-      <c r="J86" s="177"/>
-      <c r="K86" s="177"/>
-      <c r="L86" s="177"/>
-      <c r="M86" s="177"/>
-      <c r="N86" s="177"/>
-      <c r="O86" s="177"/>
-      <c r="P86" s="177"/>
-      <c r="Q86" s="177"/>
-      <c r="R86" s="177"/>
-      <c r="S86" s="177"/>
-      <c r="T86" s="177"/>
-      <c r="U86" s="177"/>
-      <c r="V86" s="177"/>
-      <c r="W86" s="177"/>
+      <c r="A86" s="202"/>
+      <c r="B86" s="203"/>
+      <c r="C86" s="203"/>
+      <c r="D86" s="203"/>
+      <c r="E86" s="203"/>
+      <c r="F86" s="203"/>
+      <c r="G86" s="203"/>
+      <c r="H86" s="203"/>
+      <c r="I86" s="203"/>
+      <c r="J86" s="203"/>
+      <c r="K86" s="203"/>
+      <c r="L86" s="203"/>
+      <c r="M86" s="203"/>
+      <c r="N86" s="203"/>
+      <c r="O86" s="203"/>
+      <c r="P86" s="203"/>
+      <c r="Q86" s="203"/>
+      <c r="R86" s="203"/>
+      <c r="S86" s="203"/>
+      <c r="T86" s="203"/>
+      <c r="U86" s="203"/>
+      <c r="V86" s="203"/>
+      <c r="W86" s="203"/>
       <c r="X86" s="75"/>
-      <c r="Y86" s="177"/>
-      <c r="Z86" s="178"/>
+      <c r="Y86" s="203"/>
+      <c r="Z86" s="204"/>
       <c r="AG86" s="125"/>
     </row>
     <row r="87" spans="1:33" s="90" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="74"/>
       <c r="B87" s="75"/>
       <c r="C87" s="75"/>
-      <c r="D87" s="177"/>
-      <c r="E87" s="177"/>
+      <c r="D87" s="203"/>
+      <c r="E87" s="203"/>
       <c r="F87" s="75"/>
       <c r="G87" s="75"/>
-      <c r="H87" s="177"/>
-      <c r="I87" s="177"/>
+      <c r="H87" s="203"/>
+      <c r="I87" s="203"/>
       <c r="J87" s="75"/>
       <c r="K87" s="75"/>
       <c r="L87" s="75"/>
-      <c r="M87" s="177"/>
-      <c r="N87" s="177"/>
-      <c r="O87" s="177"/>
-      <c r="P87" s="177"/>
-      <c r="Q87" s="177"/>
-      <c r="R87" s="177"/>
-      <c r="S87" s="177"/>
-      <c r="T87" s="177"/>
-      <c r="U87" s="177"/>
-      <c r="V87" s="177"/>
-      <c r="W87" s="177"/>
+      <c r="M87" s="203"/>
+      <c r="N87" s="203"/>
+      <c r="O87" s="203"/>
+      <c r="P87" s="203"/>
+      <c r="Q87" s="203"/>
+      <c r="R87" s="203"/>
+      <c r="S87" s="203"/>
+      <c r="T87" s="203"/>
+      <c r="U87" s="203"/>
+      <c r="V87" s="203"/>
+      <c r="W87" s="203"/>
       <c r="X87" s="75"/>
       <c r="Y87" s="75"/>
       <c r="Z87" s="78"/>
@@ -6165,32 +6669,32 @@
       <c r="AG88" s="125"/>
     </row>
     <row r="89" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="180"/>
-      <c r="B89" s="177"/>
-      <c r="C89" s="177"/>
-      <c r="D89" s="177"/>
-      <c r="E89" s="177"/>
-      <c r="F89" s="177"/>
-      <c r="G89" s="177"/>
-      <c r="H89" s="177"/>
-      <c r="I89" s="177"/>
+      <c r="A89" s="202"/>
+      <c r="B89" s="203"/>
+      <c r="C89" s="203"/>
+      <c r="D89" s="203"/>
+      <c r="E89" s="203"/>
+      <c r="F89" s="203"/>
+      <c r="G89" s="203"/>
+      <c r="H89" s="203"/>
+      <c r="I89" s="203"/>
       <c r="J89" s="75"/>
-      <c r="K89" s="177"/>
-      <c r="L89" s="177"/>
-      <c r="M89" s="177"/>
-      <c r="N89" s="177"/>
-      <c r="O89" s="177"/>
-      <c r="P89" s="177"/>
-      <c r="Q89" s="177"/>
-      <c r="R89" s="177"/>
-      <c r="S89" s="177"/>
-      <c r="T89" s="177"/>
-      <c r="U89" s="177"/>
-      <c r="V89" s="177"/>
-      <c r="W89" s="177"/>
+      <c r="K89" s="203"/>
+      <c r="L89" s="203"/>
+      <c r="M89" s="203"/>
+      <c r="N89" s="203"/>
+      <c r="O89" s="203"/>
+      <c r="P89" s="203"/>
+      <c r="Q89" s="203"/>
+      <c r="R89" s="203"/>
+      <c r="S89" s="203"/>
+      <c r="T89" s="203"/>
+      <c r="U89" s="203"/>
+      <c r="V89" s="203"/>
+      <c r="W89" s="203"/>
       <c r="X89" s="75"/>
-      <c r="Y89" s="177"/>
-      <c r="Z89" s="178"/>
+      <c r="Y89" s="203"/>
+      <c r="Z89" s="204"/>
       <c r="AG89" s="125"/>
     </row>
     <row r="90" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -6201,20 +6705,20 @@
       <c r="E90" s="75"/>
       <c r="F90" s="75"/>
       <c r="G90" s="75"/>
-      <c r="H90" s="261"/>
-      <c r="I90" s="261"/>
-      <c r="J90" s="261"/>
+      <c r="H90" s="212"/>
+      <c r="I90" s="212"/>
+      <c r="J90" s="212"/>
       <c r="K90" s="75"/>
-      <c r="L90" s="189"/>
-      <c r="M90" s="189"/>
+      <c r="L90" s="213"/>
+      <c r="M90" s="213"/>
       <c r="N90" s="75"/>
       <c r="O90" s="75"/>
       <c r="P90" s="75"/>
       <c r="Q90" s="75"/>
       <c r="R90" s="75"/>
       <c r="S90" s="75"/>
-      <c r="T90" s="189"/>
-      <c r="U90" s="189"/>
+      <c r="T90" s="213"/>
+      <c r="U90" s="213"/>
       <c r="V90" s="75"/>
       <c r="W90" s="75"/>
       <c r="X90" s="75"/>
@@ -6223,32 +6727,32 @@
       <c r="AG90" s="125"/>
     </row>
     <row r="91" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="180"/>
-      <c r="B91" s="177"/>
-      <c r="C91" s="177"/>
-      <c r="D91" s="177"/>
+      <c r="A91" s="202"/>
+      <c r="B91" s="203"/>
+      <c r="C91" s="203"/>
+      <c r="D91" s="203"/>
       <c r="E91" s="80"/>
-      <c r="F91" s="177"/>
-      <c r="G91" s="177"/>
+      <c r="F91" s="203"/>
+      <c r="G91" s="203"/>
       <c r="H91" s="75"/>
       <c r="I91" s="75"/>
       <c r="J91" s="75"/>
       <c r="K91" s="75"/>
-      <c r="L91" s="260"/>
-      <c r="M91" s="260"/>
-      <c r="N91" s="177"/>
-      <c r="O91" s="177"/>
-      <c r="P91" s="177"/>
-      <c r="Q91" s="177"/>
-      <c r="R91" s="177"/>
+      <c r="L91" s="216"/>
+      <c r="M91" s="216"/>
+      <c r="N91" s="203"/>
+      <c r="O91" s="203"/>
+      <c r="P91" s="203"/>
+      <c r="Q91" s="203"/>
+      <c r="R91" s="203"/>
       <c r="S91" s="75"/>
-      <c r="T91" s="260"/>
-      <c r="U91" s="260"/>
-      <c r="V91" s="177"/>
-      <c r="W91" s="177"/>
-      <c r="X91" s="177"/>
-      <c r="Y91" s="177"/>
-      <c r="Z91" s="178"/>
+      <c r="T91" s="216"/>
+      <c r="U91" s="216"/>
+      <c r="V91" s="203"/>
+      <c r="W91" s="203"/>
+      <c r="X91" s="203"/>
+      <c r="Y91" s="203"/>
+      <c r="Z91" s="204"/>
       <c r="AG91" s="125"/>
     </row>
     <row r="92" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -6281,32 +6785,32 @@
       <c r="AG92" s="125"/>
     </row>
     <row r="93" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="180"/>
-      <c r="B93" s="177"/>
-      <c r="C93" s="177"/>
-      <c r="D93" s="177"/>
-      <c r="E93" s="177"/>
-      <c r="F93" s="177"/>
-      <c r="G93" s="177"/>
-      <c r="H93" s="177"/>
-      <c r="I93" s="177"/>
-      <c r="J93" s="177"/>
-      <c r="K93" s="177"/>
-      <c r="L93" s="177"/>
-      <c r="M93" s="177"/>
-      <c r="N93" s="177"/>
-      <c r="O93" s="177"/>
-      <c r="P93" s="177"/>
-      <c r="Q93" s="177"/>
-      <c r="R93" s="177"/>
-      <c r="S93" s="177"/>
-      <c r="T93" s="177"/>
-      <c r="U93" s="177"/>
-      <c r="V93" s="177"/>
-      <c r="W93" s="177"/>
-      <c r="X93" s="177"/>
-      <c r="Y93" s="177"/>
-      <c r="Z93" s="178"/>
+      <c r="A93" s="202"/>
+      <c r="B93" s="203"/>
+      <c r="C93" s="203"/>
+      <c r="D93" s="203"/>
+      <c r="E93" s="203"/>
+      <c r="F93" s="203"/>
+      <c r="G93" s="203"/>
+      <c r="H93" s="203"/>
+      <c r="I93" s="203"/>
+      <c r="J93" s="203"/>
+      <c r="K93" s="203"/>
+      <c r="L93" s="203"/>
+      <c r="M93" s="203"/>
+      <c r="N93" s="203"/>
+      <c r="O93" s="203"/>
+      <c r="P93" s="203"/>
+      <c r="Q93" s="203"/>
+      <c r="R93" s="203"/>
+      <c r="S93" s="203"/>
+      <c r="T93" s="203"/>
+      <c r="U93" s="203"/>
+      <c r="V93" s="203"/>
+      <c r="W93" s="203"/>
+      <c r="X93" s="203"/>
+      <c r="Y93" s="203"/>
+      <c r="Z93" s="204"/>
       <c r="AC93" s="75"/>
       <c r="AG93" s="125"/>
     </row>
@@ -6364,32 +6868,32 @@
       <c r="AG95" s="80"/>
     </row>
     <row r="96" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="174"/>
-      <c r="B96" s="175"/>
-      <c r="C96" s="175"/>
-      <c r="D96" s="175"/>
-      <c r="E96" s="175"/>
-      <c r="F96" s="175"/>
-      <c r="G96" s="175"/>
-      <c r="H96" s="175"/>
-      <c r="I96" s="175"/>
-      <c r="J96" s="175"/>
-      <c r="K96" s="175"/>
-      <c r="L96" s="175"/>
-      <c r="M96" s="175"/>
-      <c r="N96" s="175"/>
-      <c r="O96" s="175"/>
-      <c r="P96" s="175"/>
-      <c r="Q96" s="175"/>
-      <c r="R96" s="175"/>
-      <c r="S96" s="175"/>
-      <c r="T96" s="175"/>
-      <c r="U96" s="175"/>
-      <c r="V96" s="175"/>
-      <c r="W96" s="175"/>
-      <c r="X96" s="175"/>
-      <c r="Y96" s="175"/>
-      <c r="Z96" s="176"/>
+      <c r="A96" s="217"/>
+      <c r="B96" s="218"/>
+      <c r="C96" s="218"/>
+      <c r="D96" s="218"/>
+      <c r="E96" s="218"/>
+      <c r="F96" s="218"/>
+      <c r="G96" s="218"/>
+      <c r="H96" s="218"/>
+      <c r="I96" s="218"/>
+      <c r="J96" s="218"/>
+      <c r="K96" s="218"/>
+      <c r="L96" s="218"/>
+      <c r="M96" s="218"/>
+      <c r="N96" s="218"/>
+      <c r="O96" s="218"/>
+      <c r="P96" s="218"/>
+      <c r="Q96" s="218"/>
+      <c r="R96" s="218"/>
+      <c r="S96" s="218"/>
+      <c r="T96" s="218"/>
+      <c r="U96" s="218"/>
+      <c r="V96" s="218"/>
+      <c r="W96" s="218"/>
+      <c r="X96" s="218"/>
+      <c r="Y96" s="218"/>
+      <c r="Z96" s="219"/>
       <c r="AG96" s="125"/>
     </row>
     <row r="97" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -6422,58 +6926,58 @@
       <c r="AG97" s="125"/>
     </row>
     <row r="98" spans="1:33" s="90" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="180"/>
-      <c r="B98" s="177"/>
-      <c r="C98" s="177"/>
-      <c r="D98" s="177"/>
-      <c r="E98" s="177"/>
-      <c r="F98" s="177"/>
-      <c r="G98" s="177"/>
-      <c r="H98" s="177"/>
-      <c r="I98" s="177"/>
-      <c r="J98" s="177"/>
-      <c r="K98" s="177"/>
-      <c r="L98" s="177"/>
-      <c r="M98" s="177"/>
-      <c r="N98" s="177"/>
-      <c r="O98" s="177"/>
-      <c r="P98" s="177"/>
-      <c r="Q98" s="177"/>
-      <c r="R98" s="177"/>
-      <c r="S98" s="177"/>
-      <c r="T98" s="177"/>
-      <c r="U98" s="177"/>
-      <c r="V98" s="177"/>
-      <c r="W98" s="177"/>
+      <c r="A98" s="202"/>
+      <c r="B98" s="203"/>
+      <c r="C98" s="203"/>
+      <c r="D98" s="203"/>
+      <c r="E98" s="203"/>
+      <c r="F98" s="203"/>
+      <c r="G98" s="203"/>
+      <c r="H98" s="203"/>
+      <c r="I98" s="203"/>
+      <c r="J98" s="203"/>
+      <c r="K98" s="203"/>
+      <c r="L98" s="203"/>
+      <c r="M98" s="203"/>
+      <c r="N98" s="203"/>
+      <c r="O98" s="203"/>
+      <c r="P98" s="203"/>
+      <c r="Q98" s="203"/>
+      <c r="R98" s="203"/>
+      <c r="S98" s="203"/>
+      <c r="T98" s="203"/>
+      <c r="U98" s="203"/>
+      <c r="V98" s="203"/>
+      <c r="W98" s="203"/>
       <c r="X98" s="75"/>
-      <c r="Y98" s="177"/>
-      <c r="Z98" s="178"/>
+      <c r="Y98" s="203"/>
+      <c r="Z98" s="204"/>
       <c r="AG98" s="125"/>
     </row>
     <row r="99" spans="1:33" s="90" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
-      <c r="D99" s="177"/>
-      <c r="E99" s="177"/>
+      <c r="D99" s="203"/>
+      <c r="E99" s="203"/>
       <c r="F99" s="75"/>
       <c r="G99" s="75"/>
-      <c r="H99" s="177"/>
-      <c r="I99" s="177"/>
+      <c r="H99" s="203"/>
+      <c r="I99" s="203"/>
       <c r="J99" s="75"/>
       <c r="K99" s="75"/>
       <c r="L99" s="75"/>
-      <c r="M99" s="177"/>
-      <c r="N99" s="177"/>
-      <c r="O99" s="177"/>
-      <c r="P99" s="177"/>
-      <c r="Q99" s="177"/>
-      <c r="R99" s="177"/>
-      <c r="S99" s="177"/>
-      <c r="T99" s="177"/>
-      <c r="U99" s="177"/>
-      <c r="V99" s="177"/>
-      <c r="W99" s="177"/>
+      <c r="M99" s="203"/>
+      <c r="N99" s="203"/>
+      <c r="O99" s="203"/>
+      <c r="P99" s="203"/>
+      <c r="Q99" s="203"/>
+      <c r="R99" s="203"/>
+      <c r="S99" s="203"/>
+      <c r="T99" s="203"/>
+      <c r="U99" s="203"/>
+      <c r="V99" s="203"/>
+      <c r="W99" s="203"/>
       <c r="X99" s="75"/>
       <c r="Y99" s="75"/>
       <c r="Z99" s="78"/>
@@ -6509,32 +7013,32 @@
       <c r="AG100" s="125"/>
     </row>
     <row r="101" spans="1:33" s="90" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="180"/>
-      <c r="B101" s="177"/>
-      <c r="C101" s="177"/>
-      <c r="D101" s="177"/>
-      <c r="E101" s="177"/>
-      <c r="F101" s="177"/>
-      <c r="G101" s="177"/>
-      <c r="H101" s="177"/>
-      <c r="I101" s="177"/>
+      <c r="A101" s="202"/>
+      <c r="B101" s="203"/>
+      <c r="C101" s="203"/>
+      <c r="D101" s="203"/>
+      <c r="E101" s="203"/>
+      <c r="F101" s="203"/>
+      <c r="G101" s="203"/>
+      <c r="H101" s="203"/>
+      <c r="I101" s="203"/>
       <c r="J101" s="75"/>
-      <c r="K101" s="177"/>
-      <c r="L101" s="177"/>
-      <c r="M101" s="177"/>
-      <c r="N101" s="177"/>
-      <c r="O101" s="177"/>
-      <c r="P101" s="177"/>
-      <c r="Q101" s="177"/>
-      <c r="R101" s="177"/>
-      <c r="S101" s="177"/>
-      <c r="T101" s="177"/>
-      <c r="U101" s="177"/>
-      <c r="V101" s="177"/>
-      <c r="W101" s="177"/>
+      <c r="K101" s="203"/>
+      <c r="L101" s="203"/>
+      <c r="M101" s="203"/>
+      <c r="N101" s="203"/>
+      <c r="O101" s="203"/>
+      <c r="P101" s="203"/>
+      <c r="Q101" s="203"/>
+      <c r="R101" s="203"/>
+      <c r="S101" s="203"/>
+      <c r="T101" s="203"/>
+      <c r="U101" s="203"/>
+      <c r="V101" s="203"/>
+      <c r="W101" s="203"/>
       <c r="X101" s="75"/>
-      <c r="Y101" s="177"/>
-      <c r="Z101" s="178"/>
+      <c r="Y101" s="203"/>
+      <c r="Z101" s="204"/>
       <c r="AG101" s="125"/>
     </row>
     <row r="102" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -6545,20 +7049,20 @@
       <c r="E102" s="75"/>
       <c r="F102" s="75"/>
       <c r="G102" s="75"/>
-      <c r="H102" s="261"/>
-      <c r="I102" s="261"/>
-      <c r="J102" s="261"/>
+      <c r="H102" s="212"/>
+      <c r="I102" s="212"/>
+      <c r="J102" s="212"/>
       <c r="K102" s="75"/>
-      <c r="L102" s="189"/>
-      <c r="M102" s="189"/>
+      <c r="L102" s="213"/>
+      <c r="M102" s="213"/>
       <c r="N102" s="75"/>
       <c r="O102" s="75"/>
       <c r="P102" s="75"/>
       <c r="Q102" s="75"/>
       <c r="R102" s="75"/>
       <c r="S102" s="75"/>
-      <c r="T102" s="189"/>
-      <c r="U102" s="189"/>
+      <c r="T102" s="213"/>
+      <c r="U102" s="213"/>
       <c r="V102" s="75"/>
       <c r="W102" s="75"/>
       <c r="X102" s="75"/>
@@ -6567,32 +7071,32 @@
       <c r="AG102" s="125"/>
     </row>
     <row r="103" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="180"/>
-      <c r="B103" s="177"/>
-      <c r="C103" s="177"/>
-      <c r="D103" s="177"/>
+      <c r="A103" s="202"/>
+      <c r="B103" s="203"/>
+      <c r="C103" s="203"/>
+      <c r="D103" s="203"/>
       <c r="E103" s="80"/>
-      <c r="F103" s="177"/>
-      <c r="G103" s="177"/>
+      <c r="F103" s="203"/>
+      <c r="G103" s="203"/>
       <c r="H103" s="75"/>
       <c r="I103" s="75"/>
       <c r="J103" s="75"/>
       <c r="K103" s="75"/>
-      <c r="L103" s="260"/>
-      <c r="M103" s="260"/>
-      <c r="N103" s="177"/>
-      <c r="O103" s="177"/>
-      <c r="P103" s="177"/>
-      <c r="Q103" s="177"/>
-      <c r="R103" s="177"/>
+      <c r="L103" s="216"/>
+      <c r="M103" s="216"/>
+      <c r="N103" s="203"/>
+      <c r="O103" s="203"/>
+      <c r="P103" s="203"/>
+      <c r="Q103" s="203"/>
+      <c r="R103" s="203"/>
       <c r="S103" s="75"/>
-      <c r="T103" s="260"/>
-      <c r="U103" s="260"/>
-      <c r="V103" s="177"/>
-      <c r="W103" s="177"/>
-      <c r="X103" s="177"/>
-      <c r="Y103" s="177"/>
-      <c r="Z103" s="178"/>
+      <c r="T103" s="216"/>
+      <c r="U103" s="216"/>
+      <c r="V103" s="203"/>
+      <c r="W103" s="203"/>
+      <c r="X103" s="203"/>
+      <c r="Y103" s="203"/>
+      <c r="Z103" s="204"/>
       <c r="AG103" s="125"/>
     </row>
     <row r="104" spans="1:33" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -6625,32 +7129,32 @@
       <c r="AG104" s="125"/>
     </row>
     <row r="105" spans="1:33" s="90" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="180"/>
-      <c r="B105" s="177"/>
-      <c r="C105" s="177"/>
-      <c r="D105" s="177"/>
-      <c r="E105" s="177"/>
-      <c r="F105" s="177"/>
-      <c r="G105" s="177"/>
-      <c r="H105" s="177"/>
-      <c r="I105" s="177"/>
-      <c r="J105" s="177"/>
-      <c r="K105" s="177"/>
-      <c r="L105" s="177"/>
-      <c r="M105" s="177"/>
-      <c r="N105" s="177"/>
-      <c r="O105" s="177"/>
-      <c r="P105" s="177"/>
-      <c r="Q105" s="177"/>
-      <c r="R105" s="177"/>
-      <c r="S105" s="177"/>
-      <c r="T105" s="177"/>
-      <c r="U105" s="177"/>
-      <c r="V105" s="177"/>
-      <c r="W105" s="177"/>
-      <c r="X105" s="177"/>
-      <c r="Y105" s="177"/>
-      <c r="Z105" s="178"/>
+      <c r="A105" s="202"/>
+      <c r="B105" s="203"/>
+      <c r="C105" s="203"/>
+      <c r="D105" s="203"/>
+      <c r="E105" s="203"/>
+      <c r="F105" s="203"/>
+      <c r="G105" s="203"/>
+      <c r="H105" s="203"/>
+      <c r="I105" s="203"/>
+      <c r="J105" s="203"/>
+      <c r="K105" s="203"/>
+      <c r="L105" s="203"/>
+      <c r="M105" s="203"/>
+      <c r="N105" s="203"/>
+      <c r="O105" s="203"/>
+      <c r="P105" s="203"/>
+      <c r="Q105" s="203"/>
+      <c r="R105" s="203"/>
+      <c r="S105" s="203"/>
+      <c r="T105" s="203"/>
+      <c r="U105" s="203"/>
+      <c r="V105" s="203"/>
+      <c r="W105" s="203"/>
+      <c r="X105" s="203"/>
+      <c r="Y105" s="203"/>
+      <c r="Z105" s="204"/>
       <c r="AC105" s="69"/>
       <c r="AG105" s="125"/>
     </row>
@@ -6685,63 +7189,210 @@
       <c r="AG106" s="125"/>
     </row>
     <row r="108" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A108" s="262"/>
-      <c r="B108" s="262"/>
-      <c r="C108" s="262"/>
-      <c r="D108" s="262"/>
-      <c r="E108" s="262"/>
-      <c r="F108" s="262"/>
-      <c r="G108" s="262"/>
-      <c r="H108" s="262"/>
-      <c r="I108" s="262"/>
-      <c r="J108" s="262"/>
-      <c r="K108" s="262"/>
-      <c r="L108" s="262"/>
-      <c r="M108" s="262"/>
-      <c r="N108" s="262"/>
-      <c r="O108" s="262"/>
-      <c r="P108" s="262"/>
-      <c r="Q108" s="262"/>
-      <c r="R108" s="262"/>
-      <c r="S108" s="262"/>
-      <c r="T108" s="262"/>
-      <c r="U108" s="262"/>
-      <c r="V108" s="262"/>
-      <c r="W108" s="262"/>
-      <c r="X108" s="262"/>
-      <c r="Y108" s="262"/>
-      <c r="Z108" s="262"/>
+      <c r="A108" s="205"/>
+      <c r="B108" s="205"/>
+      <c r="C108" s="205"/>
+      <c r="D108" s="205"/>
+      <c r="E108" s="205"/>
+      <c r="F108" s="205"/>
+      <c r="G108" s="205"/>
+      <c r="H108" s="205"/>
+      <c r="I108" s="205"/>
+      <c r="J108" s="205"/>
+      <c r="K108" s="205"/>
+      <c r="L108" s="205"/>
+      <c r="M108" s="205"/>
+      <c r="N108" s="205"/>
+      <c r="O108" s="205"/>
+      <c r="P108" s="205"/>
+      <c r="Q108" s="205"/>
+      <c r="R108" s="205"/>
+      <c r="S108" s="205"/>
+      <c r="T108" s="205"/>
+      <c r="U108" s="205"/>
+      <c r="V108" s="205"/>
+      <c r="W108" s="205"/>
+      <c r="X108" s="205"/>
+      <c r="Y108" s="205"/>
+      <c r="Z108" s="205"/>
     </row>
     <row r="109" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="A109" s="262"/>
-      <c r="B109" s="262"/>
-      <c r="C109" s="262"/>
-      <c r="D109" s="262"/>
-      <c r="E109" s="262"/>
-      <c r="F109" s="262"/>
-      <c r="G109" s="262"/>
-      <c r="H109" s="262"/>
-      <c r="I109" s="262"/>
-      <c r="J109" s="262"/>
-      <c r="K109" s="262"/>
-      <c r="L109" s="262"/>
-      <c r="M109" s="262"/>
-      <c r="N109" s="262"/>
-      <c r="O109" s="262"/>
-      <c r="P109" s="262"/>
-      <c r="Q109" s="262"/>
-      <c r="R109" s="262"/>
-      <c r="S109" s="262"/>
-      <c r="T109" s="262"/>
-      <c r="U109" s="262"/>
-      <c r="V109" s="262"/>
-      <c r="W109" s="262"/>
-      <c r="X109" s="262"/>
-      <c r="Y109" s="262"/>
-      <c r="Z109" s="262"/>
+      <c r="A109" s="205"/>
+      <c r="B109" s="205"/>
+      <c r="C109" s="205"/>
+      <c r="D109" s="205"/>
+      <c r="E109" s="205"/>
+      <c r="F109" s="205"/>
+      <c r="G109" s="205"/>
+      <c r="H109" s="205"/>
+      <c r="I109" s="205"/>
+      <c r="J109" s="205"/>
+      <c r="K109" s="205"/>
+      <c r="L109" s="205"/>
+      <c r="M109" s="205"/>
+      <c r="N109" s="205"/>
+      <c r="O109" s="205"/>
+      <c r="P109" s="205"/>
+      <c r="Q109" s="205"/>
+      <c r="R109" s="205"/>
+      <c r="S109" s="205"/>
+      <c r="T109" s="205"/>
+      <c r="U109" s="205"/>
+      <c r="V109" s="205"/>
+      <c r="W109" s="205"/>
+      <c r="X109" s="205"/>
+      <c r="Y109" s="205"/>
+      <c r="Z109" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="171">
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="V72:Z72"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="V74:Z74"/>
+    <mergeCell ref="D75:F75"/>
+    <mergeCell ref="V73:Z73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="G72:N72"/>
+    <mergeCell ref="G73:N73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="D73:F73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="D79:F79"/>
+    <mergeCell ref="O78:Q78"/>
+    <mergeCell ref="D76:F76"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="G76:N76"/>
+    <mergeCell ref="A80:Z80"/>
+    <mergeCell ref="A84:Z84"/>
+    <mergeCell ref="D74:F74"/>
+    <mergeCell ref="Y86:Z86"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="D77:F77"/>
+    <mergeCell ref="O75:Q75"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="G77:N77"/>
+    <mergeCell ref="G78:N78"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="O74:Q74"/>
+    <mergeCell ref="G75:N75"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="G79:N79"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="A86:W86"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="V76:Z76"/>
+    <mergeCell ref="O77:Q77"/>
+    <mergeCell ref="O76:Q76"/>
+    <mergeCell ref="O79:Q79"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="A58:Z58"/>
+    <mergeCell ref="A57:Z57"/>
+    <mergeCell ref="R35:Z35"/>
+    <mergeCell ref="A36:M36"/>
+    <mergeCell ref="Q36:Z36"/>
+    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="Q37:Z37"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="G74:N74"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="V78:Z78"/>
+    <mergeCell ref="V79:Z79"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="V75:Z75"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="G71:N71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:Z71"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="P10:Z10"/>
+    <mergeCell ref="M11:P11"/>
+    <mergeCell ref="Q11:T11"/>
+    <mergeCell ref="A59:Z59"/>
+    <mergeCell ref="A37:M37"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A2:D11"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="K24:W24"/>
+    <mergeCell ref="V77:Z77"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="L62:S62"/>
+    <mergeCell ref="T62:Z62"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="K53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="K55:Z55"/>
+    <mergeCell ref="A56:Z56"/>
+    <mergeCell ref="A64:H66"/>
+    <mergeCell ref="I64:Z66"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="A67:Z67"/>
+    <mergeCell ref="A70:N70"/>
+    <mergeCell ref="O70:Z70"/>
+    <mergeCell ref="A68:Z68"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="A69:Z69"/>
+    <mergeCell ref="A93:Z93"/>
+    <mergeCell ref="A96:Z96"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="M87:W87"/>
+    <mergeCell ref="A89:I89"/>
+    <mergeCell ref="K89:W89"/>
+    <mergeCell ref="Y89:Z89"/>
+    <mergeCell ref="K101:W101"/>
+    <mergeCell ref="Y101:Z101"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="A105:Z105"/>
+    <mergeCell ref="A108:Z109"/>
+    <mergeCell ref="C35:M35"/>
+    <mergeCell ref="P51:Z51"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:Z53"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="T102:U102"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="N103:R103"/>
+    <mergeCell ref="A98:W98"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="Y98:Z98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="M99:W99"/>
+    <mergeCell ref="A101:I101"/>
+    <mergeCell ref="V103:Z103"/>
+    <mergeCell ref="T103:U103"/>
+    <mergeCell ref="A91:D91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="N91:R91"/>
+    <mergeCell ref="V91:Z91"/>
     <mergeCell ref="AB10:AG10"/>
     <mergeCell ref="I61:M61"/>
     <mergeCell ref="AH20:AI20"/>
@@ -6766,153 +7417,6 @@
     <mergeCell ref="N20:R20"/>
     <mergeCell ref="U20:Z20"/>
     <mergeCell ref="V11:Z11"/>
-    <mergeCell ref="A105:Z105"/>
-    <mergeCell ref="A108:Z109"/>
-    <mergeCell ref="C35:M35"/>
-    <mergeCell ref="P51:Z51"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:Z53"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="L102:M102"/>
-    <mergeCell ref="T102:U102"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="N103:R103"/>
-    <mergeCell ref="A98:W98"/>
-    <mergeCell ref="L103:M103"/>
-    <mergeCell ref="Y98:Z98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="M99:W99"/>
-    <mergeCell ref="A101:I101"/>
-    <mergeCell ref="V103:Z103"/>
-    <mergeCell ref="T103:U103"/>
-    <mergeCell ref="A91:D91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="N91:R91"/>
-    <mergeCell ref="V91:Z91"/>
-    <mergeCell ref="A93:Z93"/>
-    <mergeCell ref="A96:Z96"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="M87:W87"/>
-    <mergeCell ref="A89:I89"/>
-    <mergeCell ref="K89:W89"/>
-    <mergeCell ref="Y89:Z89"/>
-    <mergeCell ref="K101:W101"/>
-    <mergeCell ref="Y101:Z101"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="A64:H66"/>
-    <mergeCell ref="I64:Z66"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="A67:Z67"/>
-    <mergeCell ref="A70:N70"/>
-    <mergeCell ref="O70:Z70"/>
-    <mergeCell ref="A68:Z68"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="A69:Z69"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="P10:Z10"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="A59:Z59"/>
-    <mergeCell ref="A37:M37"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A2:D11"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="K24:W24"/>
-    <mergeCell ref="V77:Z77"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="L62:S62"/>
-    <mergeCell ref="T62:Z62"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="K53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="K55:Z55"/>
-    <mergeCell ref="A56:Z56"/>
-    <mergeCell ref="O76:Q76"/>
-    <mergeCell ref="O79:Q79"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="A58:Z58"/>
-    <mergeCell ref="A57:Z57"/>
-    <mergeCell ref="R35:Z35"/>
-    <mergeCell ref="A36:M36"/>
-    <mergeCell ref="Q36:Z36"/>
-    <mergeCell ref="A27:N27"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="Q37:Z37"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="G74:N74"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="V78:Z78"/>
-    <mergeCell ref="V79:Z79"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="V75:Z75"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="G71:N71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:Z71"/>
-    <mergeCell ref="A80:Z80"/>
-    <mergeCell ref="A84:Z84"/>
-    <mergeCell ref="D74:F74"/>
-    <mergeCell ref="Y86:Z86"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="D77:F77"/>
-    <mergeCell ref="O75:Q75"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="G77:N77"/>
-    <mergeCell ref="G78:N78"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="O74:Q74"/>
-    <mergeCell ref="G75:N75"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="G79:N79"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="A86:W86"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="V76:Z76"/>
-    <mergeCell ref="O77:Q77"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="V72:Z72"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="V74:Z74"/>
-    <mergeCell ref="D75:F75"/>
-    <mergeCell ref="V73:Z73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="G72:N72"/>
-    <mergeCell ref="G73:N73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="D73:F73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="D79:F79"/>
-    <mergeCell ref="O78:Q78"/>
-    <mergeCell ref="D76:F76"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="G76:N76"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E16:R16">
@@ -6935,11 +7439,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BJ4"/>
+  <dimension ref="A1:BJ15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AZ3" sqref="AZ3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7176,14 +7678,14 @@
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A2" s="112" t="s">
-        <v>184</v>
+      <c r="A2" t="s">
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="D2" t="s">
         <v>119</v>
@@ -7192,43 +7694,43 @@
         <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="G2" t="s">
         <v>121</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="I2" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="J2" t="s">
         <v>118</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="L2" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="M2" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="N2" t="s">
         <v>118</v>
       </c>
       <c r="O2" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="P2" t="s">
         <v>119</v>
       </c>
       <c r="Q2" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="R2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="S2" t="s">
         <v>125</v>
@@ -7237,7 +7739,7 @@
         <v>152</v>
       </c>
       <c r="U2" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="V2" t="s">
         <v>126</v>
@@ -7249,10 +7751,10 @@
         <v>118</v>
       </c>
       <c r="Y2" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="Z2" t="s">
-        <v>193</v>
+        <v>227</v>
       </c>
       <c r="AA2" t="s">
         <v>118</v>
@@ -7294,7 +7796,7 @@
         <v>131</v>
       </c>
       <c r="AN2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO2" t="s">
         <v>131</v>
@@ -7309,28 +7811,28 @@
         <v>133</v>
       </c>
       <c r="AS2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AT2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AU2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AV2" t="s">
         <v>129</v>
       </c>
       <c r="AW2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AX2" t="s">
         <v>129</v>
       </c>
       <c r="AY2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ2" t="s">
         <v>131</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>133</v>
       </c>
       <c r="BA2" t="s">
         <v>131</v>
@@ -7339,13 +7841,13 @@
         <v>154</v>
       </c>
       <c r="BC2" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="BD2" t="s">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="BE2" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="BF2" t="s">
         <v>118</v>
@@ -7354,7 +7856,7 @@
         <v>131</v>
       </c>
       <c r="BH2" t="s">
-        <v>194</v>
+        <v>228</v>
       </c>
       <c r="BJ2" t="s">
         <v>118</v>
@@ -7362,13 +7864,13 @@
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3" s="112" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s">
         <v>158</v>
       </c>
       <c r="C3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
         <v>119</v>
@@ -7377,52 +7879,52 @@
         <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="I3" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
         <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="M3" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="N3" t="s">
         <v>118</v>
       </c>
       <c r="O3" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="P3" t="s">
         <v>119</v>
       </c>
       <c r="Q3" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="R3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="S3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="T3" t="s">
         <v>152</v>
       </c>
       <c r="U3" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="V3" t="s">
         <v>126</v>
@@ -7434,10 +7936,10 @@
         <v>118</v>
       </c>
       <c r="Y3" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
       <c r="Z3" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="AA3" t="s">
         <v>118</v>
@@ -7446,43 +7948,43 @@
         <v>157</v>
       </c>
       <c r="AC3" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="AD3" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="AE3" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="AF3" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="AG3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="AH3" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="AI3" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="AJ3" t="s">
         <v>118</v>
       </c>
       <c r="AK3" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="AL3" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="AM3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AN3" t="s">
         <v>130</v>
       </c>
       <c r="AO3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AP3" t="s">
         <v>131</v>
@@ -7494,19 +7996,19 @@
         <v>133</v>
       </c>
       <c r="AS3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AT3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AU3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AV3" t="s">
         <v>129</v>
       </c>
       <c r="AW3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AX3" t="s">
         <v>129</v>
@@ -7515,75 +8017,75 @@
         <v>131</v>
       </c>
       <c r="AZ3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA3" t="s">
         <v>131</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>134</v>
       </c>
       <c r="BB3" t="s">
         <v>154</v>
       </c>
       <c r="BC3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BD3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="BE3" t="s">
         <v>152</v>
       </c>
       <c r="BF3" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="BG3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="BH3" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="BJ3" s="120">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>160</v>
+      <c r="A4" s="112" t="s">
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
         <v>119</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="G4" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="I4" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="J4" t="s">
         <v>118</v>
       </c>
       <c r="K4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="L4" t="s">
         <v>122</v>
       </c>
       <c r="M4" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="N4" t="s">
         <v>118</v>
@@ -7595,7 +8097,7 @@
         <v>119</v>
       </c>
       <c r="Q4" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="R4" t="s">
         <v>124</v>
@@ -7607,7 +8109,7 @@
         <v>152</v>
       </c>
       <c r="U4" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="V4" t="s">
         <v>126</v>
@@ -7622,43 +8124,43 @@
         <v>122</v>
       </c>
       <c r="Z4" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="AA4" t="s">
         <v>118</v>
       </c>
       <c r="AB4" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AC4" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="AD4" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="AE4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="AF4" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="AG4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AH4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AI4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AJ4" t="s">
         <v>118</v>
       </c>
       <c r="AK4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AL4" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="AM4" t="s">
         <v>129</v>
@@ -7667,31 +8169,31 @@
         <v>130</v>
       </c>
       <c r="AO4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AP4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AQ4" t="s">
         <v>132</v>
       </c>
       <c r="AR4" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT4" t="s">
         <v>132</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>132</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>131</v>
       </c>
       <c r="AU4" t="s">
         <v>131</v>
       </c>
       <c r="AV4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AW4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="AX4" t="s">
         <v>129</v>
@@ -7708,23 +8210,2028 @@
       <c r="BB4" t="s">
         <v>154</v>
       </c>
+      <c r="BC4" t="s">
+        <v>155</v>
+      </c>
       <c r="BD4" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="BE4" t="s">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="BF4" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="BG4" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="BH4" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="BJ4" s="120">
         <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" t="s">
+        <v>163</v>
+      </c>
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" t="s">
+        <v>145</v>
+      </c>
+      <c r="L5" t="s">
+        <v>122</v>
+      </c>
+      <c r="M5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N5" t="s">
+        <v>118</v>
+      </c>
+      <c r="O5" t="s">
+        <v>123</v>
+      </c>
+      <c r="P5" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>165</v>
+      </c>
+      <c r="R5" t="s">
+        <v>124</v>
+      </c>
+      <c r="S5" t="s">
+        <v>124</v>
+      </c>
+      <c r="T5" t="s">
+        <v>152</v>
+      </c>
+      <c r="U5" t="s">
+        <v>166</v>
+      </c>
+      <c r="V5" t="s">
+        <v>126</v>
+      </c>
+      <c r="W5" t="s">
+        <v>118</v>
+      </c>
+      <c r="X5" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>169</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>140</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A6" s="297" t="s">
+        <v>229</v>
+      </c>
+      <c r="B6" s="297" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="297" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="297" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="297" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="297" t="s">
+        <v>232</v>
+      </c>
+      <c r="G6" s="297" t="s">
+        <v>141</v>
+      </c>
+      <c r="H6" s="297" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="297" t="s">
+        <v>234</v>
+      </c>
+      <c r="J6" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" s="297" t="s">
+        <v>235</v>
+      </c>
+      <c r="L6" s="297" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" s="297" t="s">
+        <v>236</v>
+      </c>
+      <c r="N6" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="297" t="s">
+        <v>237</v>
+      </c>
+      <c r="P6" s="297" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q6" s="297" t="s">
+        <v>238</v>
+      </c>
+      <c r="R6" s="297" t="s">
+        <v>124</v>
+      </c>
+      <c r="S6" s="297" t="s">
+        <v>125</v>
+      </c>
+      <c r="T6" s="297" t="s">
+        <v>239</v>
+      </c>
+      <c r="U6" s="297" t="s">
+        <v>240</v>
+      </c>
+      <c r="V6" s="297" t="s">
+        <v>126</v>
+      </c>
+      <c r="W6" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="X6" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y6" s="297" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z6" s="297" t="s">
+        <v>241</v>
+      </c>
+      <c r="AA6" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB6" s="297" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC6" s="297" t="s">
+        <v>243</v>
+      </c>
+      <c r="AD6" s="297" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE6" s="297" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF6" s="297" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG6" s="297" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH6" s="297" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI6" s="297" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ6" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK6" s="297" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL6" s="297" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM6" s="297" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN6" s="297" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO6" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP6" s="297" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ6" s="297" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR6" s="297" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS6" s="297" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT6" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU6" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV6" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW6" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX6" s="297" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY6" s="297" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ6" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA6" s="297" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB6" s="297" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC6" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD6" s="297" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE6" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF6" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG6" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH6" s="297" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H7" t="s">
+        <v>251</v>
+      </c>
+      <c r="I7" t="s">
+        <v>252</v>
+      </c>
+      <c r="J7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" t="s">
+        <v>254</v>
+      </c>
+      <c r="N7" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>255</v>
+      </c>
+      <c r="R7" t="s">
+        <v>124</v>
+      </c>
+      <c r="S7" t="s">
+        <v>124</v>
+      </c>
+      <c r="T7" t="s">
+        <v>152</v>
+      </c>
+      <c r="U7" t="s">
+        <v>256</v>
+      </c>
+      <c r="V7" t="s">
+        <v>126</v>
+      </c>
+      <c r="W7" t="s">
+        <v>118</v>
+      </c>
+      <c r="X7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>257</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J8" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" t="s">
+        <v>145</v>
+      </c>
+      <c r="L8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s">
+        <v>265</v>
+      </c>
+      <c r="N8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O8" t="s">
+        <v>123</v>
+      </c>
+      <c r="P8" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>266</v>
+      </c>
+      <c r="R8" t="s">
+        <v>125</v>
+      </c>
+      <c r="S8" t="s">
+        <v>125</v>
+      </c>
+      <c r="T8" t="s">
+        <v>152</v>
+      </c>
+      <c r="U8" t="s">
+        <v>267</v>
+      </c>
+      <c r="V8" t="s">
+        <v>126</v>
+      </c>
+      <c r="W8" t="s">
+        <v>118</v>
+      </c>
+      <c r="X8" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>270</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>272</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A9" s="297" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="297" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="297" t="s">
+        <v>275</v>
+      </c>
+      <c r="D9" s="297" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="297" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" s="297" t="s">
+        <v>276</v>
+      </c>
+      <c r="G9" s="297" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" s="297" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="297" t="s">
+        <v>278</v>
+      </c>
+      <c r="J9" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="297" t="s">
+        <v>279</v>
+      </c>
+      <c r="L9" s="297" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" s="297" t="s">
+        <v>280</v>
+      </c>
+      <c r="N9" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" s="297" t="s">
+        <v>281</v>
+      </c>
+      <c r="P9" s="297" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" s="297" t="s">
+        <v>282</v>
+      </c>
+      <c r="R9" s="297" t="s">
+        <v>125</v>
+      </c>
+      <c r="S9" s="297" t="s">
+        <v>125</v>
+      </c>
+      <c r="T9" s="297" t="s">
+        <v>152</v>
+      </c>
+      <c r="U9" s="297" t="s">
+        <v>283</v>
+      </c>
+      <c r="V9" s="297" t="s">
+        <v>126</v>
+      </c>
+      <c r="W9" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y9" s="297" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z9" s="297" t="s">
+        <v>284</v>
+      </c>
+      <c r="AA9" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB9" s="297" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC9" s="297" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD9" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE9" s="297" t="s">
+        <v>146</v>
+      </c>
+      <c r="AF9" s="297" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG9" s="297" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH9" s="297" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI9" s="297" t="s">
+        <v>286</v>
+      </c>
+      <c r="AJ9" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK9" s="297" t="s">
+        <v>287</v>
+      </c>
+      <c r="AL9" s="297" t="s">
+        <v>288</v>
+      </c>
+      <c r="AM9" s="297" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN9" s="297" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO9" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP9" s="297" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ9" s="297" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR9" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS9" s="297" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT9" s="297" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU9" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV9" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW9" s="297" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX9" s="297" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY9" s="297" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ9" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA9" s="297" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB9" s="297" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC9" s="297" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD9" s="297" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE9" s="297" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF9" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG9" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH9" s="297" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A10" s="297" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="297" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="297" t="s">
+        <v>291</v>
+      </c>
+      <c r="D10" s="297" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="297" t="s">
+        <v>143</v>
+      </c>
+      <c r="F10" s="297" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" s="297" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="297" t="s">
+        <v>293</v>
+      </c>
+      <c r="I10" s="297" t="s">
+        <v>294</v>
+      </c>
+      <c r="J10" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="297" t="s">
+        <v>295</v>
+      </c>
+      <c r="L10" s="297" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" s="297" t="s">
+        <v>296</v>
+      </c>
+      <c r="N10" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="O10" s="297" t="s">
+        <v>123</v>
+      </c>
+      <c r="P10" s="297" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="297" t="s">
+        <v>297</v>
+      </c>
+      <c r="R10" s="297" t="s">
+        <v>125</v>
+      </c>
+      <c r="S10" s="297" t="s">
+        <v>125</v>
+      </c>
+      <c r="T10" s="297" t="s">
+        <v>152</v>
+      </c>
+      <c r="U10" s="297" t="s">
+        <v>298</v>
+      </c>
+      <c r="V10" s="297" t="s">
+        <v>126</v>
+      </c>
+      <c r="W10" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="X10" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" s="297" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z10" s="297" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA10" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB10" s="297" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC10" s="297" t="s">
+        <v>300</v>
+      </c>
+      <c r="AD10" s="297" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE10" s="297" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF10" s="297" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG10" s="297" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH10" s="297" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI10" s="297" t="s">
+        <v>302</v>
+      </c>
+      <c r="AJ10" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK10" s="297" t="s">
+        <v>303</v>
+      </c>
+      <c r="AL10" s="297" t="s">
+        <v>304</v>
+      </c>
+      <c r="AM10" s="297" t="s">
+        <v>139</v>
+      </c>
+      <c r="AN10" s="297" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO10" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP10" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ10" s="297" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR10" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS10" s="297" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT10" s="297" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU10" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV10" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW10" s="297" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX10" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="AY10" s="297" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ10" s="297" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA10" s="297" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB10" s="297" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC10" s="297" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD10" s="297" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE10" s="297" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF10" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG10" s="297" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH10" s="297" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A11" s="112" t="s">
+        <v>306</v>
+      </c>
+      <c r="B11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" t="s">
+        <v>307</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" t="s">
+        <v>309</v>
+      </c>
+      <c r="I11" t="s">
+        <v>310</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>311</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s">
+        <v>312</v>
+      </c>
+      <c r="N11" t="s">
+        <v>118</v>
+      </c>
+      <c r="O11" t="s">
+        <v>313</v>
+      </c>
+      <c r="P11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>314</v>
+      </c>
+      <c r="R11" t="s">
+        <v>124</v>
+      </c>
+      <c r="S11" t="s">
+        <v>125</v>
+      </c>
+      <c r="T11" t="s">
+        <v>152</v>
+      </c>
+      <c r="U11" t="s">
+        <v>315</v>
+      </c>
+      <c r="V11" t="s">
+        <v>126</v>
+      </c>
+      <c r="W11" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>316</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>317</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>301</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>318</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>319</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>155</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>320</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" t="s">
+        <v>324</v>
+      </c>
+      <c r="G12" t="s">
+        <v>141</v>
+      </c>
+      <c r="H12" t="s">
+        <v>325</v>
+      </c>
+      <c r="I12" t="s">
+        <v>326</v>
+      </c>
+      <c r="J12" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" t="s">
+        <v>327</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s">
+        <v>328</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
+        <v>313</v>
+      </c>
+      <c r="P12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>314</v>
+      </c>
+      <c r="R12" t="s">
+        <v>124</v>
+      </c>
+      <c r="S12" t="s">
+        <v>125</v>
+      </c>
+      <c r="T12" t="s">
+        <v>152</v>
+      </c>
+      <c r="U12" t="s">
+        <v>329</v>
+      </c>
+      <c r="V12" t="s">
+        <v>126</v>
+      </c>
+      <c r="W12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X12" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>332</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>333</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>151</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>334</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>129</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>336</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F13" t="s">
+        <v>338</v>
+      </c>
+      <c r="G13" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" t="s">
+        <v>339</v>
+      </c>
+      <c r="I13" t="s">
+        <v>340</v>
+      </c>
+      <c r="J13" t="s">
+        <v>264</v>
+      </c>
+      <c r="K13" t="s">
+        <v>341</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="s">
+        <v>342</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>343</v>
+      </c>
+      <c r="P13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>344</v>
+      </c>
+      <c r="R13" t="s">
+        <v>125</v>
+      </c>
+      <c r="S13" t="s">
+        <v>125</v>
+      </c>
+      <c r="T13" t="s">
+        <v>239</v>
+      </c>
+      <c r="U13" t="s">
+        <v>345</v>
+      </c>
+      <c r="V13" t="s">
+        <v>126</v>
+      </c>
+      <c r="W13" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>346</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>242</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG13" t="s">
+        <v>131</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>350</v>
+      </c>
+      <c r="G14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" t="s">
+        <v>351</v>
+      </c>
+      <c r="I14" t="s">
+        <v>352</v>
+      </c>
+      <c r="J14" t="s">
+        <v>353</v>
+      </c>
+      <c r="K14" t="s">
+        <v>354</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="s">
+        <v>355</v>
+      </c>
+      <c r="N14" t="s">
+        <v>118</v>
+      </c>
+      <c r="O14" t="s">
+        <v>123</v>
+      </c>
+      <c r="P14" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>356</v>
+      </c>
+      <c r="R14" t="s">
+        <v>124</v>
+      </c>
+      <c r="S14" t="s">
+        <v>125</v>
+      </c>
+      <c r="T14" t="s">
+        <v>152</v>
+      </c>
+      <c r="U14" t="s">
+        <v>357</v>
+      </c>
+      <c r="V14" t="s">
+        <v>126</v>
+      </c>
+      <c r="W14" t="s">
+        <v>118</v>
+      </c>
+      <c r="X14" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>359</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>360</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>361</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>362</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D15" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>366</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>367</v>
+      </c>
+      <c r="I15" t="s">
+        <v>368</v>
+      </c>
+      <c r="J15" t="s">
+        <v>118</v>
+      </c>
+      <c r="K15" t="s">
+        <v>369</v>
+      </c>
+      <c r="L15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M15" t="s">
+        <v>370</v>
+      </c>
+      <c r="N15" t="s">
+        <v>118</v>
+      </c>
+      <c r="O15" t="s">
+        <v>123</v>
+      </c>
+      <c r="P15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>371</v>
+      </c>
+      <c r="R15" t="s">
+        <v>124</v>
+      </c>
+      <c r="S15" t="s">
+        <v>125</v>
+      </c>
+      <c r="T15" t="s">
+        <v>152</v>
+      </c>
+      <c r="U15" t="s">
+        <v>372</v>
+      </c>
+      <c r="V15" t="s">
+        <v>126</v>
+      </c>
+      <c r="W15" t="s">
+        <v>118</v>
+      </c>
+      <c r="X15" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>374</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>246</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>377</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>154</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>45</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
